--- a/Candat 7 - 2024.xlsx
+++ b/Candat 7 - 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A9671-4EC4-42CA-9788-C70DAD6604C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421F0754-5C5C-4864-9F59-859481551A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4590" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chatting &amp; Idle" sheetId="18" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="2721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="2723">
   <si>
     <t xml:space="preserve">الترحيب </t>
   </si>
@@ -10907,15 +10907,6 @@
 </t>
   </si>
   <si>
-    <t>Outage 3h (Data Down)</t>
-  </si>
-  <si>
-    <t>Outage 2h</t>
-  </si>
-  <si>
-    <t>Outage 4h (045 - 050 - 03)</t>
-  </si>
-  <si>
     <t>Outage no time</t>
   </si>
   <si>
@@ -11168,6 +11159,29 @@
   </si>
   <si>
     <t>انا واضح من خلالى ان حاليا فعلا فى مشكله عامه فى الكابلات الارضيه الخاصه بالخدمه فى السنترال وان شاء الله المشكله هتتحل فى خلال 5 ايام وممكن حضرتك تتابعنا بالنسبه لرقم الشكوى  xxx</t>
+  </si>
+  <si>
+    <t>العرض على شحن رصيد من خلال My WE App فقط بالحصول على جيجابايت مجانية هدية عند الشحن كالآتي:
+شحن ( دفع ) بقيمة 190 جنيه عالأقل يحصل العميل على 5 جيجابايت هدية
+شحن ( دفع ) بقيمة 400 جنيه أو أكثر يحصل العميل على 10 جيجابيت هدية.
+يجب ان لا يكون الدفع على مرتين للاستفادة بالعرض بمعنى ان العرض بيتم تطبيقة على الشحنة الواحدة
+العرض لعملاء الـدفع المقدم فقط
+صلاحية الجيجابايتس الهدية هي 3 أيام فقط ولا يتم ترحيلها في حالة عدم الاستخدام.
+أولولية الاستهلاك بتكون للجيجا بايتس الهدية.
+العرض متاح مرة واحدة فقط خلال الشهر.
+الجيجا بايت الهدية لا تقوم برفع السرعة في حالة انتهاء الباقه الاساسيه</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Outage Data Down 3h</t>
+  </si>
+  <si>
+    <t>Outage 3h EC (Data Down)</t>
+  </si>
+  <si>
+    <t>Outage 4h EC (045 - 050 - 03)</t>
   </si>
 </sst>
 </file>
@@ -12554,12 +12568,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12578,11 +12586,176 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -12608,15 +12781,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12624,156 +12788,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14038,8 +14052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5491FAA0-1F36-4588-9344-4A2F9F1B6EE6}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -14051,19 +14065,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2662</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>2664</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>2665</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2667</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>2668</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>416</v>
@@ -14071,19 +14085,19 @@
     </row>
     <row r="2" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>2663</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>2666</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>417</v>
@@ -14097,16 +14111,16 @@
         <v>463</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
@@ -14114,13 +14128,13 @@
         <v>471</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>556</v>
@@ -14143,10 +14157,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="113.25" customHeight="1" thickBot="1">
@@ -14515,34 +14529,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="170">
+      <c r="B2" s="168">
         <v>1</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="224" t="s">
         <v>2648</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="177"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="225"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="178"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="231"/>
     </row>
     <row r="5" spans="1:3" ht="37.5" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="168">
         <v>2</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="229" t="s">
         <v>2649</v>
       </c>
     </row>
@@ -14550,13 +14564,13 @@
       <c r="A6" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="230"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="48"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="179"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="232"/>
     </row>
     <row r="8" spans="1:3" ht="21" thickBot="1">
       <c r="A8" s="43" t="s">
@@ -14573,10 +14587,10 @@
       <c r="A9" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="168" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="224" t="s">
         <v>422</v>
       </c>
     </row>
@@ -14584,30 +14598,30 @@
       <c r="A10" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="177"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="225"/>
     </row>
     <row r="11" spans="1:3" ht="20.25">
       <c r="A11" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="46" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="48"/>
-      <c r="B12" s="172"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="53" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="171" t="s">
         <v>425</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="168" t="s">
         <v>426</v>
       </c>
       <c r="C13" s="46" t="s">
@@ -14615,27 +14629,27 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="174"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="54" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="174"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="49"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="174"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="46" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="175"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="53" t="s">
         <v>430</v>
       </c>
@@ -14644,7 +14658,7 @@
       <c r="A18" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="168" t="s">
         <v>433</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -14655,37 +14669,37 @@
       <c r="A19" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="B19" s="172"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="47" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="171" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="168" t="s">
         <v>437</v>
       </c>
-      <c r="C20" s="168" t="s">
+      <c r="C20" s="229" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A21" s="174"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="230"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="174"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="46" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A23" s="175"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="53" t="s">
         <v>440</v>
       </c>
@@ -14694,7 +14708,7 @@
       <c r="A24" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="168" t="s">
         <v>442</v>
       </c>
       <c r="C24" s="49" t="s">
@@ -14705,7 +14719,7 @@
       <c r="A25" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B25" s="172"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="56" t="s">
         <v>444</v>
       </c>
@@ -14714,7 +14728,7 @@
       <c r="A26" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="B26" s="170">
+      <c r="B26" s="168">
         <v>8888</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -14725,16 +14739,16 @@
       <c r="A27" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B27" s="172"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="53" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="168" t="s">
         <v>449</v>
       </c>
       <c r="C28" s="46" t="s">
@@ -14742,22 +14756,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="174"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="46" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="174"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="57" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A31" s="175"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="53" t="s">
         <v>453</v>
       </c>
@@ -14798,7 +14812,7 @@
       <c r="A36" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>461</v>
       </c>
       <c r="C36" s="49" t="s">
@@ -14809,7 +14823,7 @@
       <c r="A37" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B37" s="172"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="47" t="s">
         <v>463</v>
       </c>
@@ -14818,7 +14832,7 @@
       <c r="A38" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>465</v>
       </c>
       <c r="C38" s="49" t="s">
@@ -14829,7 +14843,7 @@
       <c r="A39" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B39" s="172"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="47" t="s">
         <v>467</v>
       </c>
@@ -14838,7 +14852,7 @@
       <c r="A40" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>470</v>
       </c>
       <c r="C40" s="46" t="s">
@@ -14849,14 +14863,14 @@
       <c r="A41" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B41" s="171"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="49" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickBot="1">
       <c r="A42" s="48"/>
-      <c r="B42" s="172"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="47" t="s">
         <v>473</v>
       </c>
@@ -15120,10 +15134,10 @@
       <c r="C78" s="45"/>
     </row>
     <row r="79" spans="1:3" ht="31.5">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="171" t="s">
         <v>510</v>
       </c>
-      <c r="B79" s="170">
+      <c r="B79" s="168">
         <v>400</v>
       </c>
       <c r="C79" s="49" t="s">
@@ -15131,8 +15145,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A80" s="175"/>
-      <c r="B80" s="172"/>
+      <c r="A80" s="173"/>
+      <c r="B80" s="170"/>
       <c r="C80" s="63" t="s">
         <v>512</v>
       </c>
@@ -15202,7 +15216,7 @@
       <c r="A96" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="B96" s="170" t="s">
+      <c r="B96" s="168" t="s">
         <v>519</v>
       </c>
       <c r="C96" s="49" t="s">
@@ -15213,45 +15227,45 @@
       <c r="A97" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="B97" s="171"/>
+      <c r="B97" s="169"/>
       <c r="C97" s="49"/>
     </row>
     <row r="98" spans="1:3" ht="15.75">
       <c r="A98" s="58"/>
-      <c r="B98" s="171"/>
+      <c r="B98" s="169"/>
       <c r="C98" s="49" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="58"/>
-      <c r="B99" s="171"/>
+      <c r="B99" s="169"/>
       <c r="C99" s="67" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="60">
       <c r="A100" s="58"/>
-      <c r="B100" s="171"/>
+      <c r="B100" s="169"/>
       <c r="C100" s="68" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="58"/>
-      <c r="B101" s="171"/>
+      <c r="B101" s="169"/>
       <c r="C101" s="68"/>
     </row>
     <row r="102" spans="1:3" ht="30">
       <c r="A102" s="58"/>
-      <c r="B102" s="171"/>
+      <c r="B102" s="169"/>
       <c r="C102" s="68" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1">
       <c r="A103" s="48"/>
-      <c r="B103" s="172"/>
+      <c r="B103" s="170"/>
       <c r="C103" s="69" t="s">
         <v>525</v>
       </c>
@@ -15260,7 +15274,7 @@
       <c r="A104" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="B104" s="170" t="s">
+      <c r="B104" s="168" t="s">
         <v>528</v>
       </c>
       <c r="C104" s="49" t="s">
@@ -15271,30 +15285,30 @@
       <c r="A105" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="B105" s="171"/>
+      <c r="B105" s="169"/>
       <c r="C105" s="49" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75">
       <c r="A106" s="58"/>
-      <c r="B106" s="171"/>
+      <c r="B106" s="169"/>
       <c r="C106" s="46" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" thickBot="1">
       <c r="A107" s="48"/>
-      <c r="B107" s="172"/>
+      <c r="B107" s="170"/>
       <c r="C107" s="47" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="31.5">
-      <c r="A108" s="173" t="s">
+      <c r="A108" s="171" t="s">
         <v>533</v>
       </c>
-      <c r="B108" s="170">
+      <c r="B108" s="168">
         <v>60</v>
       </c>
       <c r="C108" s="46" t="s">
@@ -15302,22 +15316,22 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75">
-      <c r="A109" s="174"/>
-      <c r="B109" s="171"/>
+      <c r="A109" s="172"/>
+      <c r="B109" s="169"/>
       <c r="C109" s="57"/>
     </row>
     <row r="110" spans="1:3" ht="48" thickBot="1">
-      <c r="A110" s="175"/>
-      <c r="B110" s="172"/>
+      <c r="A110" s="173"/>
+      <c r="B110" s="170"/>
       <c r="C110" s="53" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="31.5">
-      <c r="A111" s="173" t="s">
+      <c r="A111" s="171" t="s">
         <v>536</v>
       </c>
-      <c r="B111" s="170">
+      <c r="B111" s="168">
         <v>20</v>
       </c>
       <c r="C111" s="46" t="s">
@@ -15325,22 +15339,22 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75">
-      <c r="A112" s="174"/>
-      <c r="B112" s="171"/>
+      <c r="A112" s="172"/>
+      <c r="B112" s="169"/>
       <c r="C112" s="57"/>
     </row>
     <row r="113" spans="1:3" ht="48" thickBot="1">
-      <c r="A113" s="175"/>
-      <c r="B113" s="172"/>
+      <c r="A113" s="173"/>
+      <c r="B113" s="170"/>
       <c r="C113" s="53" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="31.5">
-      <c r="A114" s="173" t="s">
+      <c r="A114" s="171" t="s">
         <v>539</v>
       </c>
-      <c r="B114" s="239" t="s">
+      <c r="B114" s="174" t="s">
         <v>540</v>
       </c>
       <c r="C114" s="70" t="s">
@@ -15348,22 +15362,22 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75">
-      <c r="A115" s="174"/>
-      <c r="B115" s="240"/>
+      <c r="A115" s="172"/>
+      <c r="B115" s="175"/>
       <c r="C115" s="70"/>
     </row>
     <row r="116" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A116" s="175"/>
-      <c r="B116" s="241"/>
+      <c r="A116" s="173"/>
+      <c r="B116" s="176"/>
       <c r="C116" s="71" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="31.5">
-      <c r="A117" s="173" t="s">
+      <c r="A117" s="171" t="s">
         <v>543</v>
       </c>
-      <c r="B117" s="239" t="s">
+      <c r="B117" s="174" t="s">
         <v>544</v>
       </c>
       <c r="C117" s="70" t="s">
@@ -15371,22 +15385,22 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75">
-      <c r="A118" s="174"/>
-      <c r="B118" s="240"/>
+      <c r="A118" s="172"/>
+      <c r="B118" s="175"/>
       <c r="C118" s="70"/>
     </row>
     <row r="119" spans="1:3" ht="48" thickBot="1">
-      <c r="A119" s="175"/>
-      <c r="B119" s="241"/>
+      <c r="A119" s="173"/>
+      <c r="B119" s="176"/>
       <c r="C119" s="71" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="31.5">
-      <c r="A120" s="173" t="s">
+      <c r="A120" s="171" t="s">
         <v>547</v>
       </c>
-      <c r="B120" s="239" t="s">
+      <c r="B120" s="174" t="s">
         <v>548</v>
       </c>
       <c r="C120" s="70" t="s">
@@ -15394,22 +15408,22 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75">
-      <c r="A121" s="174"/>
-      <c r="B121" s="240"/>
+      <c r="A121" s="172"/>
+      <c r="B121" s="175"/>
       <c r="C121" s="70"/>
     </row>
     <row r="122" spans="1:3" ht="48" thickBot="1">
-      <c r="A122" s="175"/>
-      <c r="B122" s="241"/>
+      <c r="A122" s="173"/>
+      <c r="B122" s="176"/>
       <c r="C122" s="71" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75">
-      <c r="A123" s="173" t="s">
+      <c r="A123" s="171" t="s">
         <v>549</v>
       </c>
-      <c r="B123" s="170" t="s">
+      <c r="B123" s="168" t="s">
         <v>550</v>
       </c>
       <c r="C123" s="49" t="s">
@@ -15417,15 +15431,15 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="31.5">
-      <c r="A124" s="174"/>
-      <c r="B124" s="171"/>
+      <c r="A124" s="172"/>
+      <c r="B124" s="169"/>
       <c r="C124" s="49" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A125" s="175"/>
-      <c r="B125" s="172"/>
+      <c r="A125" s="173"/>
+      <c r="B125" s="170"/>
       <c r="C125" s="47" t="s">
         <v>553</v>
       </c>
@@ -15445,7 +15459,7 @@
       <c r="A127" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="B127" s="170" t="s">
+      <c r="B127" s="168" t="s">
         <v>558</v>
       </c>
       <c r="C127" s="46" t="s">
@@ -15456,7 +15470,7 @@
       <c r="A128" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="B128" s="172"/>
+      <c r="B128" s="170"/>
       <c r="C128" s="53" t="s">
         <v>560</v>
       </c>
@@ -15501,20 +15515,20 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="18.75">
-      <c r="A134" s="173" t="s">
+      <c r="A134" s="171" t="s">
         <v>568</v>
       </c>
       <c r="B134" s="44"/>
-      <c r="C134" s="186" t="s">
+      <c r="C134" s="177" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A135" s="175"/>
+      <c r="A135" s="173"/>
       <c r="B135" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="C135" s="188"/>
+      <c r="C135" s="178"/>
     </row>
     <row r="136" spans="1:3" ht="81">
       <c r="A136" s="41" t="s">
@@ -15687,10 +15701,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="47.25">
-      <c r="A172" s="173" t="s">
+      <c r="A172" s="171" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="170" t="s">
+      <c r="B172" s="168" t="s">
         <v>585</v>
       </c>
       <c r="C172" s="46" t="s">
@@ -15698,17 +15712,17 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A173" s="175"/>
-      <c r="B173" s="172"/>
+      <c r="A173" s="173"/>
+      <c r="B173" s="170"/>
       <c r="C173" s="53" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="47.25">
-      <c r="A174" s="173" t="s">
+      <c r="A174" s="171" t="s">
         <v>588</v>
       </c>
-      <c r="B174" s="170" t="s">
+      <c r="B174" s="168" t="s">
         <v>589</v>
       </c>
       <c r="C174" s="46" t="s">
@@ -15716,8 +15730,8 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="48" thickBot="1">
-      <c r="A175" s="175"/>
-      <c r="B175" s="172"/>
+      <c r="A175" s="173"/>
+      <c r="B175" s="170"/>
       <c r="C175" s="53" t="s">
         <v>591</v>
       </c>
@@ -15726,7 +15740,7 @@
       <c r="A176" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="B176" s="170" t="s">
+      <c r="B176" s="168" t="s">
         <v>593</v>
       </c>
       <c r="C176" s="46" t="s">
@@ -15737,38 +15751,38 @@
       <c r="A177" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="169"/>
       <c r="C177" s="57" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75">
       <c r="A178" s="58"/>
-      <c r="B178" s="171"/>
+      <c r="B178" s="169"/>
       <c r="C178" s="46" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75">
       <c r="A179" s="58"/>
-      <c r="B179" s="171"/>
+      <c r="B179" s="169"/>
       <c r="C179" s="57"/>
     </row>
     <row r="180" spans="1:3" ht="31.5">
       <c r="A180" s="58"/>
-      <c r="B180" s="171"/>
+      <c r="B180" s="169"/>
       <c r="C180" s="57" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5" thickBot="1">
       <c r="A181" s="48"/>
-      <c r="B181" s="172"/>
+      <c r="B181" s="170"/>
       <c r="C181" s="53"/>
     </row>
     <row r="182" spans="1:3" ht="31.5">
       <c r="A182" s="41"/>
-      <c r="B182" s="170" t="s">
+      <c r="B182" s="168" t="s">
         <v>599</v>
       </c>
       <c r="C182" s="46" t="s">
@@ -15779,7 +15793,7 @@
       <c r="A183" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="B183" s="172"/>
+      <c r="B183" s="170"/>
       <c r="C183" s="47" t="s">
         <v>601</v>
       </c>
@@ -15788,7 +15802,7 @@
       <c r="A184" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="B184" s="170" t="s">
+      <c r="B184" s="168" t="s">
         <v>604</v>
       </c>
       <c r="C184" s="46" t="s">
@@ -15797,24 +15811,24 @@
     </row>
     <row r="185" spans="1:3" ht="20.25">
       <c r="A185" s="41"/>
-      <c r="B185" s="171"/>
+      <c r="B185" s="169"/>
       <c r="C185" s="57"/>
     </row>
     <row r="186" spans="1:3" ht="78.75">
       <c r="A186" s="41"/>
-      <c r="B186" s="171"/>
+      <c r="B186" s="169"/>
       <c r="C186" s="57" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20.25">
       <c r="A187" s="41"/>
-      <c r="B187" s="171"/>
+      <c r="B187" s="169"/>
       <c r="C187" s="57"/>
     </row>
     <row r="188" spans="1:3" ht="63">
       <c r="A188" s="41"/>
-      <c r="B188" s="171"/>
+      <c r="B188" s="169"/>
       <c r="C188" s="49" t="s">
         <v>607</v>
       </c>
@@ -15823,21 +15837,21 @@
       <c r="A189" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="B189" s="171"/>
+      <c r="B189" s="169"/>
       <c r="C189" s="57" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20.25">
       <c r="A190" s="41"/>
-      <c r="B190" s="171"/>
+      <c r="B190" s="169"/>
       <c r="C190" s="59"/>
     </row>
     <row r="191" spans="1:3" ht="21" thickBot="1">
       <c r="A191" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B191" s="172"/>
+      <c r="B191" s="170"/>
       <c r="C191" s="45"/>
     </row>
     <row r="192" spans="1:3" ht="43.5" thickBot="1">
@@ -15852,10 +15866,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="31.5">
-      <c r="A193" s="173" t="s">
+      <c r="A193" s="171" t="s">
         <v>612</v>
       </c>
-      <c r="B193" s="170" t="s">
+      <c r="B193" s="168" t="s">
         <v>613</v>
       </c>
       <c r="C193" s="46" t="s">
@@ -15863,17 +15877,17 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A194" s="175"/>
-      <c r="B194" s="172"/>
+      <c r="A194" s="173"/>
+      <c r="B194" s="170"/>
       <c r="C194" s="47" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="63">
-      <c r="A195" s="173" t="s">
+      <c r="A195" s="171" t="s">
         <v>616</v>
       </c>
-      <c r="B195" s="170" t="s">
+      <c r="B195" s="168" t="s">
         <v>617</v>
       </c>
       <c r="C195" s="49" t="s">
@@ -15881,50 +15895,50 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75">
-      <c r="A196" s="174"/>
-      <c r="B196" s="171"/>
+      <c r="A196" s="172"/>
+      <c r="B196" s="169"/>
       <c r="C196" s="49" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75">
-      <c r="A197" s="174"/>
-      <c r="B197" s="171"/>
+      <c r="A197" s="172"/>
+      <c r="B197" s="169"/>
       <c r="C197" s="49" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75">
-      <c r="A198" s="174"/>
-      <c r="B198" s="171"/>
+      <c r="A198" s="172"/>
+      <c r="B198" s="169"/>
       <c r="C198" s="46" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="47.25">
-      <c r="A199" s="174"/>
-      <c r="B199" s="171"/>
+      <c r="A199" s="172"/>
+      <c r="B199" s="169"/>
       <c r="C199" s="54" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75">
-      <c r="A200" s="174"/>
-      <c r="B200" s="171"/>
+      <c r="A200" s="172"/>
+      <c r="B200" s="169"/>
       <c r="C200" s="54" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75">
-      <c r="A201" s="174"/>
-      <c r="B201" s="171"/>
+      <c r="A201" s="172"/>
+      <c r="B201" s="169"/>
       <c r="C201" s="54" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A202" s="175"/>
-      <c r="B202" s="172"/>
+      <c r="A202" s="173"/>
+      <c r="B202" s="170"/>
       <c r="C202" s="53" t="s">
         <v>625</v>
       </c>
@@ -15988,10 +16002,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="31.5">
-      <c r="A211" s="173" t="s">
+      <c r="A211" s="171" t="s">
         <v>632</v>
       </c>
-      <c r="B211" s="170" t="s">
+      <c r="B211" s="168" t="s">
         <v>633</v>
       </c>
       <c r="C211" s="46" t="s">
@@ -15999,48 +16013,48 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="47.25">
-      <c r="A212" s="174"/>
-      <c r="B212" s="171"/>
+      <c r="A212" s="172"/>
+      <c r="B212" s="169"/>
       <c r="C212" s="46" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75">
-      <c r="A213" s="174"/>
-      <c r="B213" s="171"/>
+      <c r="A213" s="172"/>
+      <c r="B213" s="169"/>
       <c r="C213" s="57"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
-      <c r="A214" s="174"/>
-      <c r="B214" s="171"/>
+      <c r="A214" s="172"/>
+      <c r="B214" s="169"/>
       <c r="C214" s="57"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
-      <c r="A215" s="174"/>
-      <c r="B215" s="171"/>
+      <c r="A215" s="172"/>
+      <c r="B215" s="169"/>
       <c r="C215" s="46" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75">
-      <c r="A216" s="174"/>
-      <c r="B216" s="171"/>
+      <c r="A216" s="172"/>
+      <c r="B216" s="169"/>
       <c r="C216" s="46" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A217" s="175"/>
-      <c r="B217" s="172"/>
+      <c r="A217" s="173"/>
+      <c r="B217" s="170"/>
       <c r="C217" s="63" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="31.5">
-      <c r="A218" s="173" t="s">
+      <c r="A218" s="171" t="s">
         <v>639</v>
       </c>
-      <c r="B218" s="170" t="s">
+      <c r="B218" s="168" t="s">
         <v>640</v>
       </c>
       <c r="C218" s="46" t="s">
@@ -16048,15 +16062,15 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75">
-      <c r="A219" s="174"/>
-      <c r="B219" s="171"/>
+      <c r="A219" s="172"/>
+      <c r="B219" s="169"/>
       <c r="C219" s="54" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A220" s="175"/>
-      <c r="B220" s="172"/>
+      <c r="A220" s="173"/>
+      <c r="B220" s="170"/>
       <c r="C220" s="53" t="s">
         <v>643</v>
       </c>
@@ -16065,7 +16079,7 @@
       <c r="A221" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="B221" s="170" t="s">
+      <c r="B221" s="168" t="s">
         <v>646</v>
       </c>
       <c r="C221" s="46" t="s">
@@ -16076,7 +16090,7 @@
       <c r="A222" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="B222" s="172"/>
+      <c r="B222" s="170"/>
       <c r="C222" s="53" t="s">
         <v>648</v>
       </c>
@@ -16085,7 +16099,7 @@
       <c r="A223" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="B223" s="170" t="s">
+      <c r="B223" s="168" t="s">
         <v>649</v>
       </c>
       <c r="C223" s="46" t="s">
@@ -16096,12 +16110,12 @@
       <c r="A224" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="B224" s="171"/>
+      <c r="B224" s="169"/>
       <c r="C224" s="46"/>
     </row>
     <row r="225" spans="1:3" ht="79.5" thickBot="1">
       <c r="A225" s="48"/>
-      <c r="B225" s="172"/>
+      <c r="B225" s="170"/>
       <c r="C225" s="53" t="s">
         <v>651</v>
       </c>
@@ -16153,7 +16167,7 @@
       <c r="A231" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="B231" s="170" t="s">
+      <c r="B231" s="168" t="s">
         <v>661</v>
       </c>
       <c r="C231" s="46" t="s">
@@ -16164,7 +16178,7 @@
       <c r="A232" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="B232" s="172"/>
+      <c r="B232" s="170"/>
       <c r="C232" s="53" t="s">
         <v>663</v>
       </c>
@@ -16173,7 +16187,7 @@
       <c r="A233" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="B233" s="170" t="s">
+      <c r="B233" s="168" t="s">
         <v>667</v>
       </c>
       <c r="C233" s="46" t="s">
@@ -16184,45 +16198,45 @@
       <c r="A234" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="B234" s="171"/>
+      <c r="B234" s="169"/>
       <c r="C234" s="46"/>
     </row>
     <row r="235" spans="1:3" ht="47.25">
       <c r="A235" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="B235" s="171"/>
+      <c r="B235" s="169"/>
       <c r="C235" s="46" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75">
       <c r="A236" s="58"/>
-      <c r="B236" s="171"/>
+      <c r="B236" s="169"/>
       <c r="C236" s="46"/>
     </row>
     <row r="237" spans="1:3" ht="15.75">
       <c r="A237" s="58"/>
-      <c r="B237" s="171"/>
+      <c r="B237" s="169"/>
       <c r="C237" s="46" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="31.5">
       <c r="A238" s="58"/>
-      <c r="B238" s="171"/>
+      <c r="B238" s="169"/>
       <c r="C238" s="57" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75">
       <c r="A239" s="58"/>
-      <c r="B239" s="171"/>
+      <c r="B239" s="169"/>
       <c r="C239" s="57"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
       <c r="A240" s="48"/>
-      <c r="B240" s="172"/>
+      <c r="B240" s="170"/>
       <c r="C240" s="69" t="s">
         <v>672</v>
       </c>
@@ -16370,10 +16384,10 @@
       <c r="A262" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="B262" s="170" t="s">
+      <c r="B262" s="168" t="s">
         <v>692</v>
       </c>
-      <c r="C262" s="237" t="s">
+      <c r="C262" s="179" t="s">
         <v>693</v>
       </c>
     </row>
@@ -16381,17 +16395,17 @@
       <c r="A263" s="55" t="s">
         <v>691</v>
       </c>
-      <c r="B263" s="172"/>
-      <c r="C263" s="238"/>
+      <c r="B263" s="170"/>
+      <c r="C263" s="180"/>
     </row>
     <row r="264" spans="1:3" ht="20.25">
       <c r="A264" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="B264" s="170" t="s">
+      <c r="B264" s="168" t="s">
         <v>696</v>
       </c>
-      <c r="C264" s="237" t="s">
+      <c r="C264" s="179" t="s">
         <v>697</v>
       </c>
     </row>
@@ -16399,14 +16413,14 @@
       <c r="A265" s="55" t="s">
         <v>695</v>
       </c>
-      <c r="B265" s="172"/>
-      <c r="C265" s="238"/>
+      <c r="B265" s="170"/>
+      <c r="C265" s="180"/>
     </row>
     <row r="266" spans="1:3" ht="110.25">
       <c r="A266" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="B266" s="170" t="s">
+      <c r="B266" s="168" t="s">
         <v>700</v>
       </c>
       <c r="C266" s="46" t="s">
@@ -16417,12 +16431,12 @@
       <c r="A267" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="B267" s="171"/>
+      <c r="B267" s="169"/>
       <c r="C267" s="46"/>
     </row>
     <row r="268" spans="1:3" ht="142.5" thickBot="1">
       <c r="A268" s="48"/>
-      <c r="B268" s="172"/>
+      <c r="B268" s="170"/>
       <c r="C268" s="47" t="s">
         <v>702</v>
       </c>
@@ -16431,10 +16445,10 @@
       <c r="A269" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="B269" s="170" t="s">
+      <c r="B269" s="168" t="s">
         <v>704</v>
       </c>
-      <c r="C269" s="186" t="s">
+      <c r="C269" s="177" t="s">
         <v>705</v>
       </c>
     </row>
@@ -16442,14 +16456,14 @@
       <c r="A270" s="43" t="s">
         <v>699</v>
       </c>
-      <c r="B270" s="172"/>
-      <c r="C270" s="188"/>
+      <c r="B270" s="170"/>
+      <c r="C270" s="178"/>
     </row>
     <row r="271" spans="1:3" ht="63">
       <c r="A271" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="B271" s="170" t="s">
+      <c r="B271" s="168" t="s">
         <v>707</v>
       </c>
       <c r="C271" s="46" t="s">
@@ -16460,12 +16474,12 @@
       <c r="A272" s="41" t="s">
         <v>706</v>
       </c>
-      <c r="B272" s="171"/>
+      <c r="B272" s="169"/>
       <c r="C272" s="46"/>
     </row>
     <row r="273" spans="1:3" ht="111" thickBot="1">
       <c r="A273" s="48"/>
-      <c r="B273" s="172"/>
+      <c r="B273" s="170"/>
       <c r="C273" s="47" t="s">
         <v>709</v>
       </c>
@@ -16582,10 +16596,10 @@
       <c r="C288" s="45"/>
     </row>
     <row r="289" spans="1:3" ht="47.25">
-      <c r="A289" s="173" t="s">
+      <c r="A289" s="171" t="s">
         <v>724</v>
       </c>
-      <c r="B289" s="170" t="s">
+      <c r="B289" s="168" t="s">
         <v>725</v>
       </c>
       <c r="C289" s="46" t="s">
@@ -16593,15 +16607,15 @@
       </c>
     </row>
     <row r="290" spans="1:3" ht="46.5">
-      <c r="A290" s="174"/>
-      <c r="B290" s="171"/>
+      <c r="A290" s="172"/>
+      <c r="B290" s="169"/>
       <c r="C290" s="57" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A291" s="175"/>
-      <c r="B291" s="172"/>
+      <c r="A291" s="173"/>
+      <c r="B291" s="170"/>
       <c r="C291" s="74" t="s">
         <v>728</v>
       </c>
@@ -16627,29 +16641,29 @@
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="173" t="s">
+      <c r="A294" s="171" t="s">
         <v>734</v>
       </c>
-      <c r="B294" s="170" t="s">
+      <c r="B294" s="168" t="s">
         <v>735</v>
       </c>
-      <c r="C294" s="186" t="s">
+      <c r="C294" s="177" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A295" s="175"/>
-      <c r="B295" s="172"/>
-      <c r="C295" s="188"/>
+      <c r="A295" s="173"/>
+      <c r="B295" s="170"/>
+      <c r="C295" s="178"/>
     </row>
     <row r="296" spans="1:3" ht="20.25">
       <c r="A296" s="41" t="s">
         <v>737</v>
       </c>
-      <c r="B296" s="170" t="s">
+      <c r="B296" s="168" t="s">
         <v>739</v>
       </c>
-      <c r="C296" s="192" t="s">
+      <c r="C296" s="181" t="s">
         <v>740</v>
       </c>
     </row>
@@ -16657,8 +16671,8 @@
       <c r="A297" s="43" t="s">
         <v>738</v>
       </c>
-      <c r="B297" s="172"/>
-      <c r="C297" s="193"/>
+      <c r="B297" s="170"/>
+      <c r="C297" s="182"/>
     </row>
     <row r="298" spans="1:3" ht="31.5">
       <c r="A298" s="42"/>
@@ -16724,10 +16738,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" ht="15.75">
-      <c r="A307" s="173" t="s">
+      <c r="A307" s="171" t="s">
         <v>750</v>
       </c>
-      <c r="B307" s="170" t="s">
+      <c r="B307" s="168" t="s">
         <v>751</v>
       </c>
       <c r="C307" s="46" t="s">
@@ -16735,17 +16749,17 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A308" s="175"/>
-      <c r="B308" s="172"/>
+      <c r="A308" s="173"/>
+      <c r="B308" s="170"/>
       <c r="C308" s="53" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="63">
-      <c r="A309" s="173" t="s">
+      <c r="A309" s="171" t="s">
         <v>754</v>
       </c>
-      <c r="B309" s="170" t="s">
+      <c r="B309" s="168" t="s">
         <v>755</v>
       </c>
       <c r="C309" s="46" t="s">
@@ -16753,17 +16767,17 @@
       </c>
     </row>
     <row r="310" spans="1:3" ht="63.75" thickBot="1">
-      <c r="A310" s="175"/>
-      <c r="B310" s="172"/>
+      <c r="A310" s="173"/>
+      <c r="B310" s="170"/>
       <c r="C310" s="53" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15.75">
-      <c r="A311" s="173" t="s">
+      <c r="A311" s="171" t="s">
         <v>758</v>
       </c>
-      <c r="B311" s="170" t="s">
+      <c r="B311" s="168" t="s">
         <v>759</v>
       </c>
       <c r="C311" s="46" t="s">
@@ -16771,17 +16785,17 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A312" s="175"/>
-      <c r="B312" s="172"/>
+      <c r="A312" s="173"/>
+      <c r="B312" s="170"/>
       <c r="C312" s="53" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="15.75">
-      <c r="A313" s="173" t="s">
+      <c r="A313" s="171" t="s">
         <v>762</v>
       </c>
-      <c r="B313" s="170" t="s">
+      <c r="B313" s="168" t="s">
         <v>763</v>
       </c>
       <c r="C313" s="46" t="s">
@@ -16789,17 +16803,17 @@
       </c>
     </row>
     <row r="314" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A314" s="175"/>
-      <c r="B314" s="172"/>
+      <c r="A314" s="173"/>
+      <c r="B314" s="170"/>
       <c r="C314" s="53" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="15.75">
-      <c r="A315" s="173" t="s">
+      <c r="A315" s="171" t="s">
         <v>766</v>
       </c>
-      <c r="B315" s="170" t="s">
+      <c r="B315" s="168" t="s">
         <v>767</v>
       </c>
       <c r="C315" s="46" t="s">
@@ -16807,17 +16821,17 @@
       </c>
     </row>
     <row r="316" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A316" s="175"/>
-      <c r="B316" s="172"/>
+      <c r="A316" s="173"/>
+      <c r="B316" s="170"/>
       <c r="C316" s="53" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="31.5">
-      <c r="A317" s="173" t="s">
+      <c r="A317" s="171" t="s">
         <v>770</v>
       </c>
-      <c r="B317" s="170" t="s">
+      <c r="B317" s="168" t="s">
         <v>771</v>
       </c>
       <c r="C317" s="46" t="s">
@@ -16825,17 +16839,17 @@
       </c>
     </row>
     <row r="318" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A318" s="175"/>
-      <c r="B318" s="172"/>
+      <c r="A318" s="173"/>
+      <c r="B318" s="170"/>
       <c r="C318" s="53" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="31.5">
-      <c r="A319" s="173" t="s">
+      <c r="A319" s="171" t="s">
         <v>774</v>
       </c>
-      <c r="B319" s="170" t="s">
+      <c r="B319" s="168" t="s">
         <v>775</v>
       </c>
       <c r="C319" s="49" t="s">
@@ -16843,17 +16857,17 @@
       </c>
     </row>
     <row r="320" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A320" s="175"/>
-      <c r="B320" s="172"/>
+      <c r="A320" s="173"/>
+      <c r="B320" s="170"/>
       <c r="C320" s="76" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="63">
-      <c r="A321" s="173" t="s">
+      <c r="A321" s="171" t="s">
         <v>778</v>
       </c>
-      <c r="B321" s="170" t="s">
+      <c r="B321" s="168" t="s">
         <v>779</v>
       </c>
       <c r="C321" s="46" t="s">
@@ -16861,29 +16875,29 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="15.75">
-      <c r="A322" s="174"/>
-      <c r="B322" s="171"/>
+      <c r="A322" s="172"/>
+      <c r="B322" s="169"/>
       <c r="C322" s="46"/>
     </row>
     <row r="323" spans="1:3" ht="47.25">
-      <c r="A323" s="174"/>
-      <c r="B323" s="171"/>
+      <c r="A323" s="172"/>
+      <c r="B323" s="169"/>
       <c r="C323" s="54" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A324" s="175"/>
-      <c r="B324" s="172"/>
+      <c r="A324" s="173"/>
+      <c r="B324" s="170"/>
       <c r="C324" s="53" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="31.5">
-      <c r="A325" s="173" t="s">
+      <c r="A325" s="171" t="s">
         <v>783</v>
       </c>
-      <c r="B325" s="170" t="s">
+      <c r="B325" s="168" t="s">
         <v>784</v>
       </c>
       <c r="C325" s="46" t="s">
@@ -16891,8 +16905,8 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A326" s="175"/>
-      <c r="B326" s="172"/>
+      <c r="A326" s="173"/>
+      <c r="B326" s="170"/>
       <c r="C326" s="53" t="s">
         <v>786</v>
       </c>
@@ -16901,7 +16915,7 @@
       <c r="A327" s="41" t="s">
         <v>787</v>
       </c>
-      <c r="B327" s="170" t="s">
+      <c r="B327" s="168" t="s">
         <v>789</v>
       </c>
       <c r="C327" s="46" t="s">
@@ -16910,7 +16924,7 @@
     </row>
     <row r="328" spans="1:3" ht="31.5">
       <c r="A328" s="41"/>
-      <c r="B328" s="171"/>
+      <c r="B328" s="169"/>
       <c r="C328" s="57" t="s">
         <v>791</v>
       </c>
@@ -16919,33 +16933,33 @@
       <c r="A329" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="B329" s="171"/>
+      <c r="B329" s="169"/>
       <c r="C329" s="57"/>
     </row>
     <row r="330" spans="1:3" ht="47.25">
       <c r="A330" s="58"/>
-      <c r="B330" s="171"/>
+      <c r="B330" s="169"/>
       <c r="C330" s="46" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="63">
       <c r="A331" s="58"/>
-      <c r="B331" s="171"/>
+      <c r="B331" s="169"/>
       <c r="C331" s="54" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="16.5" thickBot="1">
       <c r="A332" s="48"/>
-      <c r="B332" s="172"/>
+      <c r="B332" s="170"/>
       <c r="C332" s="51"/>
     </row>
     <row r="333" spans="1:3" ht="31.5">
-      <c r="A333" s="231" t="s">
+      <c r="A333" s="183" t="s">
         <v>794</v>
       </c>
-      <c r="B333" s="234" t="s">
+      <c r="B333" s="186" t="s">
         <v>795</v>
       </c>
       <c r="C333" s="77" t="s">
@@ -16953,22 +16967,22 @@
       </c>
     </row>
     <row r="334" spans="1:3" ht="15.75">
-      <c r="A334" s="232"/>
-      <c r="B334" s="235"/>
+      <c r="A334" s="184"/>
+      <c r="B334" s="187"/>
       <c r="C334" s="77" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="47.25">
-      <c r="A335" s="232"/>
-      <c r="B335" s="235"/>
+      <c r="A335" s="184"/>
+      <c r="B335" s="187"/>
       <c r="C335" s="78" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A336" s="233"/>
-      <c r="B336" s="236"/>
+      <c r="A336" s="185"/>
+      <c r="B336" s="188"/>
       <c r="C336" s="79" t="s">
         <v>799</v>
       </c>
@@ -17418,10 +17432,10 @@
       </c>
     </row>
     <row r="401" spans="1:3" ht="15.75">
-      <c r="A401" s="173" t="s">
+      <c r="A401" s="171" t="s">
         <v>851</v>
       </c>
-      <c r="B401" s="170" t="s">
+      <c r="B401" s="168" t="s">
         <v>852</v>
       </c>
       <c r="C401" s="46" t="s">
@@ -17429,8 +17443,8 @@
       </c>
     </row>
     <row r="402" spans="1:3" ht="63.75" thickBot="1">
-      <c r="A402" s="175"/>
-      <c r="B402" s="172"/>
+      <c r="A402" s="173"/>
+      <c r="B402" s="170"/>
       <c r="C402" s="51" t="s">
         <v>854</v>
       </c>
@@ -17439,7 +17453,7 @@
       <c r="A403" s="41" t="s">
         <v>855</v>
       </c>
-      <c r="B403" s="170" t="s">
+      <c r="B403" s="168" t="s">
         <v>856</v>
       </c>
       <c r="C403" s="49" t="s">
@@ -17450,13 +17464,13 @@
       <c r="A404" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B404" s="172"/>
+      <c r="B404" s="170"/>
       <c r="C404" s="47" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="47.25">
-      <c r="A405" s="173" t="s">
+      <c r="A405" s="171" t="s">
         <v>859</v>
       </c>
       <c r="B405" s="44"/>
@@ -17465,7 +17479,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="78.75">
-      <c r="A406" s="174"/>
+      <c r="A406" s="172"/>
       <c r="B406" s="44" t="s">
         <v>860</v>
       </c>
@@ -17474,17 +17488,17 @@
       </c>
     </row>
     <row r="407" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A407" s="175"/>
+      <c r="A407" s="173"/>
       <c r="B407" s="45"/>
       <c r="C407" s="76" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="31.5">
-      <c r="A408" s="173" t="s">
+      <c r="A408" s="171" t="s">
         <v>863</v>
       </c>
-      <c r="B408" s="170" t="s">
+      <c r="B408" s="168" t="s">
         <v>864</v>
       </c>
       <c r="C408" s="46" t="s">
@@ -17492,20 +17506,20 @@
       </c>
     </row>
     <row r="409" spans="1:3" ht="15.75">
-      <c r="A409" s="174"/>
-      <c r="B409" s="171"/>
+      <c r="A409" s="172"/>
+      <c r="B409" s="169"/>
       <c r="C409" s="57"/>
     </row>
     <row r="410" spans="1:3" ht="15.75">
-      <c r="A410" s="174"/>
-      <c r="B410" s="171"/>
+      <c r="A410" s="172"/>
+      <c r="B410" s="169"/>
       <c r="C410" s="49" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A411" s="175"/>
-      <c r="B411" s="172"/>
+      <c r="A411" s="173"/>
+      <c r="B411" s="170"/>
       <c r="C411" s="47" t="s">
         <v>867</v>
       </c>
@@ -17737,10 +17751,10 @@
       <c r="C443" s="45"/>
     </row>
     <row r="444" spans="1:3" ht="31.5">
-      <c r="A444" s="173" t="s">
+      <c r="A444" s="171" t="s">
         <v>901</v>
       </c>
-      <c r="B444" s="170" t="s">
+      <c r="B444" s="168" t="s">
         <v>902</v>
       </c>
       <c r="C444" s="49" t="s">
@@ -17748,17 +17762,17 @@
       </c>
     </row>
     <row r="445" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A445" s="175"/>
-      <c r="B445" s="172"/>
+      <c r="A445" s="173"/>
+      <c r="B445" s="170"/>
       <c r="C445" s="47" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="31.5">
-      <c r="A446" s="173" t="s">
+      <c r="A446" s="171" t="s">
         <v>905</v>
       </c>
-      <c r="B446" s="170" t="s">
+      <c r="B446" s="168" t="s">
         <v>906</v>
       </c>
       <c r="C446" s="49" t="s">
@@ -17766,64 +17780,64 @@
       </c>
     </row>
     <row r="447" spans="1:3" ht="15.75">
-      <c r="A447" s="174"/>
-      <c r="B447" s="171"/>
+      <c r="A447" s="172"/>
+      <c r="B447" s="169"/>
       <c r="C447" s="49" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="15.75">
-      <c r="A448" s="174"/>
-      <c r="B448" s="171"/>
+      <c r="A448" s="172"/>
+      <c r="B448" s="169"/>
       <c r="C448" s="49" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="15.75">
-      <c r="A449" s="174"/>
-      <c r="B449" s="171"/>
+      <c r="A449" s="172"/>
+      <c r="B449" s="169"/>
       <c r="C449" s="49" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="15.75">
-      <c r="A450" s="174"/>
-      <c r="B450" s="171"/>
+      <c r="A450" s="172"/>
+      <c r="B450" s="169"/>
       <c r="C450" s="49" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15.75">
-      <c r="A451" s="174"/>
-      <c r="B451" s="171"/>
+      <c r="A451" s="172"/>
+      <c r="B451" s="169"/>
       <c r="C451" s="49" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="15.75">
-      <c r="A452" s="174"/>
-      <c r="B452" s="171"/>
+      <c r="A452" s="172"/>
+      <c r="B452" s="169"/>
       <c r="C452" s="49" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" s="174"/>
-      <c r="B453" s="171"/>
+      <c r="A453" s="172"/>
+      <c r="B453" s="169"/>
       <c r="C453" s="82"/>
     </row>
     <row r="454" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A454" s="175"/>
-      <c r="B454" s="172"/>
+      <c r="A454" s="173"/>
+      <c r="B454" s="170"/>
       <c r="C454" s="76" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="63">
-      <c r="A455" s="173" t="s">
+      <c r="A455" s="171" t="s">
         <v>915</v>
       </c>
-      <c r="B455" s="170" t="s">
+      <c r="B455" s="168" t="s">
         <v>916</v>
       </c>
       <c r="C455" s="49" t="s">
@@ -17831,17 +17845,17 @@
       </c>
     </row>
     <row r="456" spans="1:3" ht="79.5" thickBot="1">
-      <c r="A456" s="175"/>
-      <c r="B456" s="172"/>
+      <c r="A456" s="173"/>
+      <c r="B456" s="170"/>
       <c r="C456" s="76" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="47.25">
-      <c r="A457" s="173" t="s">
+      <c r="A457" s="171" t="s">
         <v>919</v>
       </c>
-      <c r="B457" s="170" t="s">
+      <c r="B457" s="168" t="s">
         <v>920</v>
       </c>
       <c r="C457" s="49" t="s">
@@ -17849,8 +17863,8 @@
       </c>
     </row>
     <row r="458" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A458" s="175"/>
-      <c r="B458" s="172"/>
+      <c r="A458" s="173"/>
+      <c r="B458" s="170"/>
       <c r="C458" s="47" t="s">
         <v>922</v>
       </c>
@@ -17881,7 +17895,7 @@
       <c r="C461" s="45"/>
     </row>
     <row r="462" spans="1:3" ht="18.75">
-      <c r="A462" s="173" t="s">
+      <c r="A462" s="171" t="s">
         <v>927</v>
       </c>
       <c r="B462" s="44"/>
@@ -17890,14 +17904,14 @@
       </c>
     </row>
     <row r="463" spans="1:3" ht="31.5">
-      <c r="A463" s="174"/>
+      <c r="A463" s="172"/>
       <c r="B463" s="44"/>
       <c r="C463" s="46" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="48" thickBot="1">
-      <c r="A464" s="175"/>
+      <c r="A464" s="173"/>
       <c r="B464" s="50" t="s">
         <v>928</v>
       </c>
@@ -17920,7 +17934,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" ht="31.5">
-      <c r="A467" s="173" t="s">
+      <c r="A467" s="171" t="s">
         <v>933</v>
       </c>
       <c r="B467" s="44"/>
@@ -17929,7 +17943,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A468" s="175"/>
+      <c r="A468" s="173"/>
       <c r="B468" s="50" t="s">
         <v>934</v>
       </c>
@@ -18191,10 +18205,10 @@
       </c>
     </row>
     <row r="510" spans="1:3" ht="15.75">
-      <c r="A510" s="209" t="s">
+      <c r="A510" s="194" t="s">
         <v>958</v>
       </c>
-      <c r="B510" s="170" t="s">
+      <c r="B510" s="168" t="s">
         <v>231</v>
       </c>
       <c r="C510" s="46" t="s">
@@ -18202,8 +18216,8 @@
       </c>
     </row>
     <row r="511" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A511" s="210"/>
-      <c r="B511" s="172"/>
+      <c r="A511" s="195"/>
+      <c r="B511" s="170"/>
       <c r="C511" s="51" t="s">
         <v>960</v>
       </c>
@@ -18252,7 +18266,7 @@
         <v>968</v>
       </c>
       <c r="B517" s="62"/>
-      <c r="C517" s="206" t="s">
+      <c r="C517" s="189" t="s">
         <v>971</v>
       </c>
     </row>
@@ -18263,7 +18277,7 @@
       <c r="B518" s="50" t="s">
         <v>970</v>
       </c>
-      <c r="C518" s="208"/>
+      <c r="C518" s="190"/>
     </row>
     <row r="519" spans="1:3" ht="31.5">
       <c r="A519" s="41" t="s">
@@ -18523,7 +18537,7 @@
       <c r="A551" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="B551" s="170" t="s">
+      <c r="B551" s="168" t="s">
         <v>1008</v>
       </c>
       <c r="C551" s="46" t="s">
@@ -18534,12 +18548,12 @@
       <c r="A552" s="41" t="s">
         <v>1007</v>
       </c>
-      <c r="B552" s="171"/>
+      <c r="B552" s="169"/>
       <c r="C552" s="46"/>
     </row>
     <row r="553" spans="1:3" ht="48" thickBot="1">
       <c r="A553" s="48"/>
-      <c r="B553" s="172"/>
+      <c r="B553" s="170"/>
       <c r="C553" s="53" t="s">
         <v>1010</v>
       </c>
@@ -18547,7 +18561,7 @@
     <row r="554" spans="1:3" ht="20.25">
       <c r="A554" s="41"/>
       <c r="B554" s="44"/>
-      <c r="C554" s="211" t="s">
+      <c r="C554" s="191" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -18558,21 +18572,21 @@
       <c r="B555" s="44" t="s">
         <v>1014</v>
       </c>
-      <c r="C555" s="230"/>
+      <c r="C555" s="192"/>
     </row>
     <row r="556" spans="1:3" ht="20.25">
       <c r="A556" s="41" t="s">
         <v>1012</v>
       </c>
       <c r="B556" s="59"/>
-      <c r="C556" s="230"/>
+      <c r="C556" s="192"/>
     </row>
     <row r="557" spans="1:3" ht="21" thickBot="1">
       <c r="A557" s="43" t="s">
         <v>1013</v>
       </c>
       <c r="B557" s="45"/>
-      <c r="C557" s="212"/>
+      <c r="C557" s="193"/>
     </row>
     <row r="558" spans="1:3" ht="75">
       <c r="A558" s="41"/>
@@ -19084,10 +19098,10 @@
       </c>
     </row>
     <row r="633" spans="1:3" ht="15.75">
-      <c r="A633" s="173" t="s">
+      <c r="A633" s="171" t="s">
         <v>1089</v>
       </c>
-      <c r="B633" s="170" t="s">
+      <c r="B633" s="168" t="s">
         <v>1090</v>
       </c>
       <c r="C633" s="49" t="s">
@@ -19095,8 +19109,8 @@
       </c>
     </row>
     <row r="634" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A634" s="175"/>
-      <c r="B634" s="172"/>
+      <c r="A634" s="173"/>
+      <c r="B634" s="170"/>
       <c r="C634" s="47" t="s">
         <v>1092</v>
       </c>
@@ -19311,7 +19325,7 @@
       <c r="C663" s="46"/>
     </row>
     <row r="664" spans="1:3" ht="94.5">
-      <c r="A664" s="173" t="s">
+      <c r="A664" s="171" t="s">
         <v>2650</v>
       </c>
       <c r="B664" s="59"/>
@@ -19320,12 +19334,12 @@
       </c>
     </row>
     <row r="665" spans="1:3" ht="15.75">
-      <c r="A665" s="174"/>
+      <c r="A665" s="172"/>
       <c r="B665" s="59"/>
       <c r="C665" s="46"/>
     </row>
     <row r="666" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A666" s="175"/>
+      <c r="A666" s="173"/>
       <c r="B666" s="59"/>
       <c r="C666" s="46" t="s">
         <v>1125</v>
@@ -19346,10 +19360,10 @@
       </c>
     </row>
     <row r="669" spans="1:3" ht="15.75">
-      <c r="A669" s="173" t="s">
+      <c r="A669" s="171" t="s">
         <v>1128</v>
       </c>
-      <c r="B669" s="170" t="s">
+      <c r="B669" s="168" t="s">
         <v>1129</v>
       </c>
       <c r="C669" s="46" t="s">
@@ -19357,23 +19371,23 @@
       </c>
     </row>
     <row r="670" spans="1:3" ht="15.75">
-      <c r="A670" s="174"/>
-      <c r="B670" s="171"/>
+      <c r="A670" s="172"/>
+      <c r="B670" s="169"/>
       <c r="C670" s="54"/>
     </row>
     <row r="671" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A671" s="175"/>
-      <c r="B671" s="172"/>
+      <c r="A671" s="173"/>
+      <c r="B671" s="170"/>
       <c r="C671" s="53" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="20.25">
       <c r="A672" s="41"/>
-      <c r="B672" s="170" t="s">
+      <c r="B672" s="168" t="s">
         <v>1133</v>
       </c>
-      <c r="C672" s="186" t="s">
+      <c r="C672" s="177" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -19381,14 +19395,14 @@
       <c r="A673" s="43" t="s">
         <v>1132</v>
       </c>
-      <c r="B673" s="172"/>
-      <c r="C673" s="188"/>
+      <c r="B673" s="170"/>
+      <c r="C673" s="178"/>
     </row>
     <row r="674" spans="1:3" ht="31.5">
-      <c r="A674" s="173" t="s">
+      <c r="A674" s="171" t="s">
         <v>1135</v>
       </c>
-      <c r="B674" s="170" t="s">
+      <c r="B674" s="168" t="s">
         <v>1136</v>
       </c>
       <c r="C674" s="46" t="s">
@@ -19396,8 +19410,8 @@
       </c>
     </row>
     <row r="675" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A675" s="175"/>
-      <c r="B675" s="172"/>
+      <c r="A675" s="173"/>
+      <c r="B675" s="170"/>
       <c r="C675" s="53" t="s">
         <v>1138</v>
       </c>
@@ -19742,168 +19756,168 @@
       </c>
     </row>
     <row r="723" spans="1:3" ht="20.25">
-      <c r="A723" s="227" t="s">
+      <c r="A723" s="208" t="s">
         <v>1190</v>
       </c>
-      <c r="B723" s="228"/>
-      <c r="C723" s="229"/>
+      <c r="B723" s="209"/>
+      <c r="C723" s="210"/>
     </row>
     <row r="724" spans="1:3" ht="16.5">
-      <c r="A724" s="197" t="s">
+      <c r="A724" s="196" t="s">
         <v>1191</v>
       </c>
-      <c r="B724" s="198"/>
-      <c r="C724" s="199"/>
+      <c r="B724" s="197"/>
+      <c r="C724" s="198"/>
     </row>
     <row r="725" spans="1:3" ht="16.5">
-      <c r="A725" s="197" t="s">
+      <c r="A725" s="196" t="s">
         <v>1192</v>
       </c>
-      <c r="B725" s="198"/>
-      <c r="C725" s="199"/>
+      <c r="B725" s="197"/>
+      <c r="C725" s="198"/>
     </row>
     <row r="726" spans="1:3" ht="20.25">
-      <c r="A726" s="221"/>
-      <c r="B726" s="222"/>
-      <c r="C726" s="223"/>
+      <c r="A726" s="199"/>
+      <c r="B726" s="200"/>
+      <c r="C726" s="201"/>
     </row>
     <row r="727" spans="1:3" ht="20.25">
-      <c r="A727" s="194" t="s">
+      <c r="A727" s="202" t="s">
         <v>1193</v>
       </c>
-      <c r="B727" s="195"/>
-      <c r="C727" s="196"/>
+      <c r="B727" s="203"/>
+      <c r="C727" s="204"/>
     </row>
     <row r="728" spans="1:3" ht="16.5">
-      <c r="A728" s="197" t="s">
+      <c r="A728" s="196" t="s">
         <v>1194</v>
       </c>
-      <c r="B728" s="198"/>
-      <c r="C728" s="199"/>
+      <c r="B728" s="197"/>
+      <c r="C728" s="198"/>
     </row>
     <row r="729" spans="1:3" ht="16.5">
-      <c r="A729" s="224" t="s">
+      <c r="A729" s="205" t="s">
         <v>1195</v>
       </c>
-      <c r="B729" s="225"/>
-      <c r="C729" s="226"/>
+      <c r="B729" s="206"/>
+      <c r="C729" s="207"/>
     </row>
     <row r="730" spans="1:3" ht="16.5">
-      <c r="A730" s="197" t="s">
+      <c r="A730" s="196" t="s">
         <v>1196</v>
       </c>
-      <c r="B730" s="198"/>
-      <c r="C730" s="199"/>
+      <c r="B730" s="197"/>
+      <c r="C730" s="198"/>
     </row>
     <row r="731" spans="1:3" ht="16.5">
-      <c r="A731" s="197" t="s">
+      <c r="A731" s="196" t="s">
         <v>1197</v>
       </c>
-      <c r="B731" s="198"/>
-      <c r="C731" s="199"/>
+      <c r="B731" s="197"/>
+      <c r="C731" s="198"/>
     </row>
     <row r="732" spans="1:3" ht="20.25">
-      <c r="A732" s="221"/>
-      <c r="B732" s="222"/>
-      <c r="C732" s="223"/>
+      <c r="A732" s="199"/>
+      <c r="B732" s="200"/>
+      <c r="C732" s="201"/>
     </row>
     <row r="733" spans="1:3" ht="20.25">
-      <c r="A733" s="194" t="s">
+      <c r="A733" s="202" t="s">
         <v>1198</v>
       </c>
-      <c r="B733" s="195"/>
-      <c r="C733" s="196"/>
+      <c r="B733" s="203"/>
+      <c r="C733" s="204"/>
     </row>
     <row r="734" spans="1:3" ht="16.5">
-      <c r="A734" s="197" t="s">
+      <c r="A734" s="196" t="s">
         <v>1199</v>
       </c>
-      <c r="B734" s="198"/>
-      <c r="C734" s="199"/>
+      <c r="B734" s="197"/>
+      <c r="C734" s="198"/>
     </row>
     <row r="735" spans="1:3" ht="16.5">
-      <c r="A735" s="197" t="s">
+      <c r="A735" s="196" t="s">
         <v>1200</v>
       </c>
-      <c r="B735" s="198"/>
-      <c r="C735" s="199"/>
+      <c r="B735" s="197"/>
+      <c r="C735" s="198"/>
     </row>
     <row r="736" spans="1:3" ht="20.25">
-      <c r="A736" s="221"/>
-      <c r="B736" s="222"/>
-      <c r="C736" s="223"/>
+      <c r="A736" s="199"/>
+      <c r="B736" s="200"/>
+      <c r="C736" s="201"/>
     </row>
     <row r="737" spans="1:3" ht="20.25">
-      <c r="A737" s="194" t="s">
+      <c r="A737" s="202" t="s">
         <v>1201</v>
       </c>
-      <c r="B737" s="195"/>
-      <c r="C737" s="196"/>
+      <c r="B737" s="203"/>
+      <c r="C737" s="204"/>
     </row>
     <row r="738" spans="1:3" ht="16.5">
-      <c r="A738" s="197" t="s">
+      <c r="A738" s="196" t="s">
         <v>1202</v>
       </c>
-      <c r="B738" s="198"/>
-      <c r="C738" s="199"/>
+      <c r="B738" s="197"/>
+      <c r="C738" s="198"/>
     </row>
     <row r="739" spans="1:3" ht="16.5">
-      <c r="A739" s="197" t="s">
+      <c r="A739" s="196" t="s">
         <v>1203</v>
       </c>
-      <c r="B739" s="198"/>
-      <c r="C739" s="199"/>
+      <c r="B739" s="197"/>
+      <c r="C739" s="198"/>
     </row>
     <row r="740" spans="1:3" ht="16.5">
-      <c r="A740" s="197" t="s">
+      <c r="A740" s="196" t="s">
         <v>1204</v>
       </c>
-      <c r="B740" s="198"/>
-      <c r="C740" s="199"/>
+      <c r="B740" s="197"/>
+      <c r="C740" s="198"/>
     </row>
     <row r="741" spans="1:3" ht="16.5">
-      <c r="A741" s="197" t="s">
+      <c r="A741" s="196" t="s">
         <v>1205</v>
       </c>
-      <c r="B741" s="198"/>
-      <c r="C741" s="199"/>
+      <c r="B741" s="197"/>
+      <c r="C741" s="198"/>
     </row>
     <row r="742" spans="1:3" ht="20.25">
-      <c r="A742" s="221"/>
-      <c r="B742" s="222"/>
-      <c r="C742" s="223"/>
+      <c r="A742" s="199"/>
+      <c r="B742" s="200"/>
+      <c r="C742" s="201"/>
     </row>
     <row r="743" spans="1:3" ht="20.25">
-      <c r="A743" s="194" t="s">
+      <c r="A743" s="202" t="s">
         <v>1206</v>
       </c>
-      <c r="B743" s="195"/>
-      <c r="C743" s="196"/>
+      <c r="B743" s="203"/>
+      <c r="C743" s="204"/>
     </row>
     <row r="744" spans="1:3" ht="16.5">
-      <c r="A744" s="197" t="s">
+      <c r="A744" s="196" t="s">
         <v>1207</v>
       </c>
-      <c r="B744" s="198"/>
-      <c r="C744" s="199"/>
+      <c r="B744" s="197"/>
+      <c r="C744" s="198"/>
     </row>
     <row r="745" spans="1:3" ht="16.5">
-      <c r="A745" s="197" t="s">
+      <c r="A745" s="196" t="s">
         <v>1208</v>
       </c>
-      <c r="B745" s="198"/>
-      <c r="C745" s="199"/>
+      <c r="B745" s="197"/>
+      <c r="C745" s="198"/>
     </row>
     <row r="746" spans="1:3" ht="21" thickBot="1">
-      <c r="A746" s="200"/>
-      <c r="B746" s="201"/>
-      <c r="C746" s="202"/>
+      <c r="A746" s="226"/>
+      <c r="B746" s="227"/>
+      <c r="C746" s="228"/>
     </row>
     <row r="747" spans="1:3" ht="63">
       <c r="A747" s="41" t="s">
         <v>1209</v>
       </c>
-      <c r="B747" s="170" t="s">
+      <c r="B747" s="168" t="s">
         <v>1211</v>
       </c>
       <c r="C747" s="46" t="s">
@@ -19912,26 +19926,26 @@
     </row>
     <row r="748" spans="1:3" ht="20.25">
       <c r="A748" s="41"/>
-      <c r="B748" s="171"/>
+      <c r="B748" s="169"/>
       <c r="C748" s="57"/>
     </row>
     <row r="749" spans="1:3" ht="40.5">
       <c r="A749" s="41" t="s">
         <v>1210</v>
       </c>
-      <c r="B749" s="171"/>
+      <c r="B749" s="169"/>
       <c r="C749" s="57"/>
     </row>
     <row r="750" spans="1:3" ht="47.25">
       <c r="A750" s="58"/>
-      <c r="B750" s="171"/>
+      <c r="B750" s="169"/>
       <c r="C750" s="46" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="751" spans="1:3" ht="45.75" thickBot="1">
       <c r="A751" s="48"/>
-      <c r="B751" s="172"/>
+      <c r="B751" s="170"/>
       <c r="C751" s="98" t="s">
         <v>1214</v>
       </c>
@@ -19975,7 +19989,7 @@
       <c r="A757" s="41" t="s">
         <v>1219</v>
       </c>
-      <c r="B757" s="170" t="s">
+      <c r="B757" s="168" t="s">
         <v>1221</v>
       </c>
       <c r="C757" s="46" t="s">
@@ -19986,14 +20000,14 @@
       <c r="A758" s="41" t="s">
         <v>1220</v>
       </c>
-      <c r="B758" s="171"/>
+      <c r="B758" s="169"/>
       <c r="C758" s="46" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="759" spans="1:3" ht="16.5" thickBot="1">
       <c r="A759" s="48"/>
-      <c r="B759" s="172"/>
+      <c r="B759" s="170"/>
       <c r="C759" s="51" t="s">
         <v>1224</v>
       </c>
@@ -20010,10 +20024,10 @@
       </c>
     </row>
     <row r="761" spans="1:3" ht="63">
-      <c r="A761" s="173" t="s">
+      <c r="A761" s="171" t="s">
         <v>1228</v>
       </c>
-      <c r="B761" s="170" t="s">
+      <c r="B761" s="168" t="s">
         <v>1229</v>
       </c>
       <c r="C761" s="46" t="s">
@@ -20021,15 +20035,15 @@
       </c>
     </row>
     <row r="762" spans="1:3" ht="15.75">
-      <c r="A762" s="174"/>
-      <c r="B762" s="171"/>
+      <c r="A762" s="172"/>
+      <c r="B762" s="169"/>
       <c r="C762" s="49" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="763" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A763" s="175"/>
-      <c r="B763" s="172"/>
+      <c r="A763" s="173"/>
+      <c r="B763" s="170"/>
       <c r="C763" s="63" t="s">
         <v>1232</v>
       </c>
@@ -20038,7 +20052,7 @@
       <c r="A764" s="41" t="s">
         <v>1233</v>
       </c>
-      <c r="B764" s="170" t="s">
+      <c r="B764" s="168" t="s">
         <v>1236</v>
       </c>
       <c r="C764" s="49" t="s">
@@ -20049,7 +20063,7 @@
       <c r="A765" s="41" t="s">
         <v>1234</v>
       </c>
-      <c r="B765" s="171"/>
+      <c r="B765" s="169"/>
       <c r="C765" s="94" t="s">
         <v>1130</v>
       </c>
@@ -20058,7 +20072,7 @@
       <c r="A766" s="43" t="s">
         <v>1235</v>
       </c>
-      <c r="B766" s="172"/>
+      <c r="B766" s="170"/>
       <c r="C766" s="45"/>
     </row>
     <row r="767" spans="1:3" ht="20.25">
@@ -20344,7 +20358,7 @@
       <c r="C808" s="45"/>
     </row>
     <row r="809" spans="1:3" ht="31.5">
-      <c r="A809" s="173" t="s">
+      <c r="A809" s="171" t="s">
         <v>1274</v>
       </c>
       <c r="B809" s="44"/>
@@ -20353,14 +20367,14 @@
       </c>
     </row>
     <row r="810" spans="1:3" ht="18.75">
-      <c r="A810" s="174"/>
+      <c r="A810" s="172"/>
       <c r="B810" s="44" t="s">
         <v>1275</v>
       </c>
       <c r="C810" s="59"/>
     </row>
     <row r="811" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A811" s="175"/>
+      <c r="A811" s="173"/>
       <c r="B811" s="45"/>
       <c r="C811" s="63" t="s">
         <v>1277</v>
@@ -20369,35 +20383,35 @@
     <row r="812" spans="1:3" ht="20.25">
       <c r="A812" s="41"/>
       <c r="B812" s="44"/>
-      <c r="C812" s="192" t="s">
+      <c r="C812" s="181" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="813" spans="1:3" ht="20.25">
       <c r="A813" s="41"/>
       <c r="B813" s="44"/>
-      <c r="C813" s="220"/>
+      <c r="C813" s="212"/>
     </row>
     <row r="814" spans="1:3" ht="20.25">
       <c r="A814" s="41" t="s">
         <v>1278</v>
       </c>
       <c r="B814" s="44"/>
-      <c r="C814" s="220"/>
+      <c r="C814" s="212"/>
     </row>
     <row r="815" spans="1:3" ht="20.25">
       <c r="A815" s="41" t="s">
         <v>1279</v>
       </c>
       <c r="B815" s="44"/>
-      <c r="C815" s="220"/>
+      <c r="C815" s="212"/>
     </row>
     <row r="816" spans="1:3" ht="19.5" thickBot="1">
       <c r="A816" s="48"/>
       <c r="B816" s="50" t="s">
         <v>1280</v>
       </c>
-      <c r="C816" s="193"/>
+      <c r="C816" s="182"/>
     </row>
     <row r="817" spans="1:3" ht="20.25">
       <c r="A817" s="41"/>
@@ -21741,7 +21755,7 @@
         <v>1454</v>
       </c>
       <c r="B1008" s="44"/>
-      <c r="C1008" s="192" t="s">
+      <c r="C1008" s="181" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -21750,19 +21764,19 @@
         <v>1455</v>
       </c>
       <c r="B1009" s="44"/>
-      <c r="C1009" s="220"/>
+      <c r="C1009" s="212"/>
     </row>
     <row r="1010" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1010" s="48"/>
       <c r="B1010" s="50" t="s">
         <v>1455</v>
       </c>
-      <c r="C1010" s="193"/>
+      <c r="C1010" s="182"/>
     </row>
     <row r="1011" spans="1:3" ht="20.25">
       <c r="A1011" s="41"/>
       <c r="B1011" s="44"/>
-      <c r="C1011" s="186" t="s">
+      <c r="C1011" s="177" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -21773,7 +21787,7 @@
       <c r="B1012" s="50">
         <v>200</v>
       </c>
-      <c r="C1012" s="188"/>
+      <c r="C1012" s="178"/>
     </row>
     <row r="1013" spans="1:3" ht="31.5">
       <c r="A1013" s="41"/>
@@ -21928,7 +21942,7 @@
       <c r="C1034" s="51"/>
     </row>
     <row r="1035" spans="1:3" ht="252">
-      <c r="A1035" s="173" t="s">
+      <c r="A1035" s="171" t="s">
         <v>1473</v>
       </c>
       <c r="B1035" s="44"/>
@@ -21937,28 +21951,28 @@
       </c>
     </row>
     <row r="1036" spans="1:3" ht="18.75">
-      <c r="A1036" s="174"/>
+      <c r="A1036" s="172"/>
       <c r="B1036" s="44"/>
       <c r="C1036" s="46" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="1037" spans="1:3" ht="31.5">
-      <c r="A1037" s="174"/>
+      <c r="A1037" s="172"/>
       <c r="B1037" s="44"/>
       <c r="C1037" s="46" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="1038" spans="1:3" ht="126">
-      <c r="A1038" s="174"/>
+      <c r="A1038" s="172"/>
       <c r="B1038" s="44"/>
       <c r="C1038" s="101" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="1039" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1039" s="175"/>
+      <c r="A1039" s="173"/>
       <c r="B1039" s="50" t="s">
         <v>1474</v>
       </c>
@@ -22367,7 +22381,7 @@
       <c r="A1095" s="41" t="s">
         <v>1535</v>
       </c>
-      <c r="B1095" s="170" t="s">
+      <c r="B1095" s="168" t="s">
         <v>1538</v>
       </c>
       <c r="C1095" s="46" t="s">
@@ -22376,7 +22390,7 @@
     </row>
     <row r="1096" spans="1:3" ht="20.25">
       <c r="A1096" s="41"/>
-      <c r="B1096" s="171"/>
+      <c r="B1096" s="169"/>
       <c r="C1096" s="46" t="s">
         <v>1540</v>
       </c>
@@ -22385,7 +22399,7 @@
       <c r="A1097" s="41" t="s">
         <v>1536</v>
       </c>
-      <c r="B1097" s="171"/>
+      <c r="B1097" s="169"/>
       <c r="C1097" s="46" t="s">
         <v>1541</v>
       </c>
@@ -22394,33 +22408,33 @@
       <c r="A1098" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="B1098" s="171"/>
+      <c r="B1098" s="169"/>
       <c r="C1098" s="57"/>
     </row>
     <row r="1099" spans="1:3" ht="78.75">
       <c r="A1099" s="41"/>
-      <c r="B1099" s="171"/>
+      <c r="B1099" s="169"/>
       <c r="C1099" s="57" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="1100" spans="1:3" ht="20.25">
       <c r="A1100" s="41"/>
-      <c r="B1100" s="171"/>
+      <c r="B1100" s="169"/>
       <c r="C1100" s="54"/>
     </row>
     <row r="1101" spans="1:3" ht="61.5" thickBot="1">
       <c r="A1101" s="43" t="s">
         <v>1537</v>
       </c>
-      <c r="B1101" s="172"/>
+      <c r="B1101" s="170"/>
       <c r="C1101" s="45"/>
     </row>
     <row r="1102" spans="1:3" ht="31.5">
-      <c r="A1102" s="173" t="s">
+      <c r="A1102" s="171" t="s">
         <v>1543</v>
       </c>
-      <c r="B1102" s="170" t="s">
+      <c r="B1102" s="168" t="s">
         <v>1544</v>
       </c>
       <c r="C1102" s="46" t="s">
@@ -22428,39 +22442,39 @@
       </c>
     </row>
     <row r="1103" spans="1:3" ht="15.75">
-      <c r="A1103" s="174"/>
-      <c r="B1103" s="171"/>
+      <c r="A1103" s="172"/>
+      <c r="B1103" s="169"/>
       <c r="C1103" s="57"/>
     </row>
     <row r="1104" spans="1:3" ht="204.75">
-      <c r="A1104" s="174"/>
-      <c r="B1104" s="171"/>
+      <c r="A1104" s="172"/>
+      <c r="B1104" s="169"/>
       <c r="C1104" s="46" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="1105" spans="1:3" ht="63">
-      <c r="A1105" s="174"/>
-      <c r="B1105" s="171"/>
+      <c r="A1105" s="172"/>
+      <c r="B1105" s="169"/>
       <c r="C1105" s="46" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="1106" spans="1:3" ht="15.75">
-      <c r="A1106" s="174"/>
-      <c r="B1106" s="171"/>
+      <c r="A1106" s="172"/>
+      <c r="B1106" s="169"/>
       <c r="C1106" s="46" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="1107" spans="1:3" ht="15.75">
-      <c r="A1107" s="174"/>
-      <c r="B1107" s="171"/>
+      <c r="A1107" s="172"/>
+      <c r="B1107" s="169"/>
       <c r="C1107" s="57"/>
     </row>
     <row r="1108" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A1108" s="175"/>
-      <c r="B1108" s="172"/>
+      <c r="A1108" s="173"/>
+      <c r="B1108" s="170"/>
       <c r="C1108" s="51" t="s">
         <v>1548</v>
       </c>
@@ -22491,10 +22505,10 @@
       <c r="A1111" s="41" t="s">
         <v>1555</v>
       </c>
-      <c r="B1111" s="170" t="s">
+      <c r="B1111" s="168" t="s">
         <v>1558</v>
       </c>
-      <c r="C1111" s="186" t="s">
+      <c r="C1111" s="177" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -22502,21 +22516,21 @@
       <c r="A1112" s="41" t="s">
         <v>1556</v>
       </c>
-      <c r="B1112" s="171"/>
-      <c r="C1112" s="187"/>
+      <c r="B1112" s="169"/>
+      <c r="C1112" s="211"/>
     </row>
     <row r="1113" spans="1:3" ht="41.25" thickBot="1">
       <c r="A1113" s="55" t="s">
         <v>1557</v>
       </c>
-      <c r="B1113" s="172"/>
-      <c r="C1113" s="188"/>
+      <c r="B1113" s="170"/>
+      <c r="C1113" s="178"/>
     </row>
     <row r="1114" spans="1:3" ht="31.5">
       <c r="A1114" s="41" t="s">
         <v>1560</v>
       </c>
-      <c r="B1114" s="170" t="s">
+      <c r="B1114" s="168" t="s">
         <v>1564</v>
       </c>
       <c r="C1114" s="49" t="s">
@@ -22527,7 +22541,7 @@
       <c r="A1115" s="41" t="s">
         <v>1561</v>
       </c>
-      <c r="B1115" s="171"/>
+      <c r="B1115" s="169"/>
       <c r="C1115" s="49" t="s">
         <v>1566</v>
       </c>
@@ -22536,7 +22550,7 @@
       <c r="A1116" s="41" t="s">
         <v>1562</v>
       </c>
-      <c r="B1116" s="171"/>
+      <c r="B1116" s="169"/>
       <c r="C1116" s="49" t="s">
         <v>1567</v>
       </c>
@@ -22545,7 +22559,7 @@
       <c r="A1117" s="43" t="s">
         <v>1563</v>
       </c>
-      <c r="B1117" s="172"/>
+      <c r="B1117" s="170"/>
       <c r="C1117" s="45"/>
     </row>
     <row r="1118" spans="1:3" ht="94.5">
@@ -22616,7 +22630,7 @@
     <row r="1127" spans="1:3" ht="20.25">
       <c r="A1127" s="41"/>
       <c r="B1127" s="44"/>
-      <c r="C1127" s="186" t="s">
+      <c r="C1127" s="177" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -22627,16 +22641,16 @@
       <c r="B1128" s="50" t="s">
         <v>1578</v>
       </c>
-      <c r="C1128" s="188"/>
+      <c r="C1128" s="178"/>
     </row>
     <row r="1129" spans="1:3" ht="40.5">
       <c r="A1129" s="41" t="s">
         <v>1580</v>
       </c>
-      <c r="B1129" s="170" t="s">
+      <c r="B1129" s="168" t="s">
         <v>1582</v>
       </c>
-      <c r="C1129" s="186" t="s">
+      <c r="C1129" s="177" t="s">
         <v>1583</v>
       </c>
     </row>
@@ -22644,8 +22658,8 @@
       <c r="A1130" s="43" t="s">
         <v>1581</v>
       </c>
-      <c r="B1130" s="172"/>
-      <c r="C1130" s="188"/>
+      <c r="B1130" s="170"/>
+      <c r="C1130" s="178"/>
     </row>
     <row r="1131" spans="1:3" ht="126">
       <c r="A1131" s="41"/>
@@ -22711,7 +22725,7 @@
       <c r="A1137" s="41" t="s">
         <v>1599</v>
       </c>
-      <c r="B1137" s="170" t="s">
+      <c r="B1137" s="168" t="s">
         <v>1603</v>
       </c>
       <c r="C1137" s="46" t="s">
@@ -22720,81 +22734,81 @@
     </row>
     <row r="1138" spans="1:3" ht="20.25">
       <c r="A1138" s="41"/>
-      <c r="B1138" s="171"/>
+      <c r="B1138" s="169"/>
       <c r="C1138" s="46"/>
     </row>
     <row r="1139" spans="1:3" ht="47.25">
       <c r="A1139" s="41"/>
-      <c r="B1139" s="171"/>
+      <c r="B1139" s="169"/>
       <c r="C1139" s="46" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="1140" spans="1:3" ht="20.25">
       <c r="A1140" s="41"/>
-      <c r="B1140" s="171"/>
+      <c r="B1140" s="169"/>
       <c r="C1140" s="57"/>
     </row>
     <row r="1141" spans="1:3" ht="20.25">
       <c r="A1141" s="41"/>
-      <c r="B1141" s="171"/>
+      <c r="B1141" s="169"/>
       <c r="C1141" s="57"/>
     </row>
     <row r="1142" spans="1:3" ht="63">
       <c r="A1142" s="41" t="s">
         <v>1600</v>
       </c>
-      <c r="B1142" s="171"/>
+      <c r="B1142" s="169"/>
       <c r="C1142" s="46" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="1143" spans="1:3" ht="15.75">
       <c r="A1143" s="58"/>
-      <c r="B1143" s="171"/>
+      <c r="B1143" s="169"/>
       <c r="C1143" s="57"/>
     </row>
     <row r="1144" spans="1:3" ht="20.25">
       <c r="A1144" s="41"/>
-      <c r="B1144" s="171"/>
+      <c r="B1144" s="169"/>
       <c r="C1144" s="57"/>
     </row>
     <row r="1145" spans="1:3" ht="78.75">
       <c r="A1145" s="41"/>
-      <c r="B1145" s="171"/>
+      <c r="B1145" s="169"/>
       <c r="C1145" s="46" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="1146" spans="1:3" ht="20.25">
       <c r="A1146" s="42"/>
-      <c r="B1146" s="171"/>
+      <c r="B1146" s="169"/>
       <c r="C1146" s="57"/>
     </row>
     <row r="1147" spans="1:3" ht="78.75">
       <c r="A1147" s="41" t="s">
         <v>1601</v>
       </c>
-      <c r="B1147" s="171"/>
+      <c r="B1147" s="169"/>
       <c r="C1147" s="46" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1148" spans="1:3" ht="20.25">
       <c r="A1148" s="41"/>
-      <c r="B1148" s="171"/>
+      <c r="B1148" s="169"/>
       <c r="C1148" s="57"/>
     </row>
     <row r="1149" spans="1:3" ht="63">
       <c r="A1149" s="41"/>
-      <c r="B1149" s="171"/>
+      <c r="B1149" s="169"/>
       <c r="C1149" s="57" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="1150" spans="1:3" ht="31.5">
       <c r="A1150" s="41"/>
-      <c r="B1150" s="171"/>
+      <c r="B1150" s="169"/>
       <c r="C1150" s="57" t="s">
         <v>1610</v>
       </c>
@@ -22803,7 +22817,7 @@
       <c r="A1151" s="43" t="s">
         <v>1602</v>
       </c>
-      <c r="B1151" s="172"/>
+      <c r="B1151" s="170"/>
       <c r="C1151" s="45"/>
     </row>
     <row r="1152" spans="1:3" ht="78.75">
@@ -22871,10 +22885,10 @@
       </c>
     </row>
     <row r="1160" spans="1:3" ht="63">
-      <c r="A1160" s="173" t="s">
+      <c r="A1160" s="171" t="s">
         <v>1623</v>
       </c>
-      <c r="B1160" s="170" t="s">
+      <c r="B1160" s="168" t="s">
         <v>1624</v>
       </c>
       <c r="C1160" s="46" t="s">
@@ -22882,17 +22896,17 @@
       </c>
     </row>
     <row r="1161" spans="1:3" ht="48" thickBot="1">
-      <c r="A1161" s="175"/>
-      <c r="B1161" s="172"/>
+      <c r="A1161" s="173"/>
+      <c r="B1161" s="170"/>
       <c r="C1161" s="51" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="1162" spans="1:3" ht="78.75">
-      <c r="A1162" s="173" t="s">
+      <c r="A1162" s="171" t="s">
         <v>1627</v>
       </c>
-      <c r="B1162" s="170" t="s">
+      <c r="B1162" s="168" t="s">
         <v>1628</v>
       </c>
       <c r="C1162" s="46" t="s">
@@ -22900,29 +22914,29 @@
       </c>
     </row>
     <row r="1163" spans="1:3" ht="31.5">
-      <c r="A1163" s="174"/>
-      <c r="B1163" s="171"/>
+      <c r="A1163" s="172"/>
+      <c r="B1163" s="169"/>
       <c r="C1163" s="46" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="1164" spans="1:3" ht="31.5">
-      <c r="A1164" s="174"/>
-      <c r="B1164" s="171"/>
+      <c r="A1164" s="172"/>
+      <c r="B1164" s="169"/>
       <c r="C1164" s="46" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="1165" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1165" s="175"/>
-      <c r="B1165" s="172"/>
+      <c r="A1165" s="173"/>
+      <c r="B1165" s="170"/>
       <c r="C1165" s="51"/>
     </row>
     <row r="1166" spans="1:3" ht="47.25">
-      <c r="A1166" s="173" t="s">
+      <c r="A1166" s="171" t="s">
         <v>1631</v>
       </c>
-      <c r="B1166" s="170" t="s">
+      <c r="B1166" s="168" t="s">
         <v>1632</v>
       </c>
       <c r="C1166" s="46" t="s">
@@ -22930,29 +22944,29 @@
       </c>
     </row>
     <row r="1167" spans="1:3" ht="47.25">
-      <c r="A1167" s="174"/>
-      <c r="B1167" s="171"/>
+      <c r="A1167" s="172"/>
+      <c r="B1167" s="169"/>
       <c r="C1167" s="46" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="1168" spans="1:3" ht="15.75">
-      <c r="A1168" s="174"/>
-      <c r="B1168" s="171"/>
+      <c r="A1168" s="172"/>
+      <c r="B1168" s="169"/>
       <c r="C1168" s="46" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="1169" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1169" s="175"/>
-      <c r="B1169" s="172"/>
+      <c r="A1169" s="173"/>
+      <c r="B1169" s="170"/>
       <c r="C1169" s="51" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="1170" spans="1:3" ht="299.25">
       <c r="A1170" s="41"/>
-      <c r="B1170" s="170" t="s">
+      <c r="B1170" s="168" t="s">
         <v>1637</v>
       </c>
       <c r="C1170" s="46" t="s">
@@ -22961,19 +22975,19 @@
     </row>
     <row r="1171" spans="1:3" ht="20.25">
       <c r="A1171" s="41"/>
-      <c r="B1171" s="171"/>
+      <c r="B1171" s="169"/>
       <c r="C1171" s="46" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="1172" spans="1:3" ht="20.25">
       <c r="A1172" s="41"/>
-      <c r="B1172" s="171"/>
+      <c r="B1172" s="169"/>
       <c r="C1172" s="46"/>
     </row>
     <row r="1173" spans="1:3" ht="330.75">
       <c r="A1173" s="41"/>
-      <c r="B1173" s="171"/>
+      <c r="B1173" s="169"/>
       <c r="C1173" s="57" t="s">
         <v>1640</v>
       </c>
@@ -22982,7 +22996,7 @@
       <c r="A1174" s="41" t="s">
         <v>1635</v>
       </c>
-      <c r="B1174" s="171"/>
+      <c r="B1174" s="169"/>
       <c r="C1174" s="54" t="s">
         <v>1641</v>
       </c>
@@ -22991,14 +23005,14 @@
       <c r="A1175" s="41" t="s">
         <v>1636</v>
       </c>
-      <c r="B1175" s="171"/>
+      <c r="B1175" s="169"/>
       <c r="C1175" s="59"/>
     </row>
     <row r="1176" spans="1:3" ht="21" thickBot="1">
       <c r="A1176" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="B1176" s="172"/>
+      <c r="B1176" s="170"/>
       <c r="C1176" s="45"/>
     </row>
     <row r="1177" spans="1:3" ht="94.5">
@@ -23536,20 +23550,20 @@
       </c>
     </row>
     <row r="1261" spans="1:3" ht="18.75">
-      <c r="A1261" s="173" t="s">
+      <c r="A1261" s="171" t="s">
         <v>1694</v>
       </c>
       <c r="B1261" s="44"/>
-      <c r="C1261" s="186" t="s">
+      <c r="C1261" s="177" t="s">
         <v>1696</v>
       </c>
     </row>
     <row r="1262" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1262" s="175"/>
+      <c r="A1262" s="173"/>
       <c r="B1262" s="50" t="s">
         <v>1695</v>
       </c>
-      <c r="C1262" s="188"/>
+      <c r="C1262" s="178"/>
     </row>
     <row r="1263" spans="1:3" ht="31.5">
       <c r="A1263" s="41"/>
@@ -24083,7 +24097,7 @@
     </row>
     <row r="1348" spans="1:2" ht="20.25">
       <c r="A1348" s="110"/>
-      <c r="B1348" s="186" t="s">
+      <c r="B1348" s="177" t="s">
         <v>1763</v>
       </c>
     </row>
@@ -24091,7 +24105,7 @@
       <c r="A1349" s="113" t="s">
         <v>1762</v>
       </c>
-      <c r="B1349" s="188"/>
+      <c r="B1349" s="178"/>
     </row>
     <row r="1350" spans="1:2" ht="20.25">
       <c r="A1350" s="110"/>
@@ -24332,7 +24346,7 @@
       <c r="A1385" s="41" t="s">
         <v>1789</v>
       </c>
-      <c r="B1385" s="170" t="s">
+      <c r="B1385" s="168" t="s">
         <v>1803</v>
       </c>
       <c r="C1385" s="49" t="s">
@@ -24343,63 +24357,63 @@
       <c r="A1386" s="41" t="s">
         <v>1802</v>
       </c>
-      <c r="B1386" s="171"/>
+      <c r="B1386" s="169"/>
       <c r="C1386" s="49" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="1387" spans="1:3" ht="15.75">
       <c r="A1387" s="58"/>
-      <c r="B1387" s="171"/>
+      <c r="B1387" s="169"/>
       <c r="C1387" s="49" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="1388" spans="1:3" ht="15.75">
       <c r="A1388" s="58"/>
-      <c r="B1388" s="171"/>
+      <c r="B1388" s="169"/>
       <c r="C1388" s="57" t="s">
         <v>1795</v>
       </c>
     </row>
     <row r="1389" spans="1:3" ht="15.75">
       <c r="A1389" s="58"/>
-      <c r="B1389" s="171"/>
+      <c r="B1389" s="169"/>
       <c r="C1389" s="49" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="1390" spans="1:3" ht="15.75">
       <c r="A1390" s="58"/>
-      <c r="B1390" s="171"/>
+      <c r="B1390" s="169"/>
       <c r="C1390" s="49" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="1391" spans="1:3" ht="15.75">
       <c r="A1391" s="58"/>
-      <c r="B1391" s="171"/>
+      <c r="B1391" s="169"/>
       <c r="C1391" s="49" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="1392" spans="1:3" ht="15.75">
       <c r="A1392" s="58"/>
-      <c r="B1392" s="171"/>
+      <c r="B1392" s="169"/>
       <c r="C1392" s="49" t="s">
         <v>1804</v>
       </c>
     </row>
     <row r="1393" spans="1:3" ht="15.75">
       <c r="A1393" s="58"/>
-      <c r="B1393" s="171"/>
+      <c r="B1393" s="169"/>
       <c r="C1393" s="49" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="1394" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1394" s="48"/>
-      <c r="B1394" s="172"/>
+      <c r="B1394" s="170"/>
       <c r="C1394" s="63" t="s">
         <v>1801</v>
       </c>
@@ -24408,7 +24422,7 @@
       <c r="A1395" s="41" t="s">
         <v>1805</v>
       </c>
-      <c r="B1395" s="170" t="s">
+      <c r="B1395" s="168" t="s">
         <v>1803</v>
       </c>
       <c r="C1395" s="49" t="s">
@@ -24419,7 +24433,7 @@
       <c r="A1396" s="43" t="s">
         <v>1806</v>
       </c>
-      <c r="B1396" s="172"/>
+      <c r="B1396" s="170"/>
       <c r="C1396" s="63" t="s">
         <v>1808</v>
       </c>
@@ -24739,7 +24753,7 @@
     </row>
     <row r="1438" spans="1:3" ht="141.75">
       <c r="A1438" s="41"/>
-      <c r="B1438" s="170" t="s">
+      <c r="B1438" s="168" t="s">
         <v>1848</v>
       </c>
       <c r="C1438" s="46" t="s">
@@ -24750,7 +24764,7 @@
       <c r="A1439" s="41" t="s">
         <v>1846</v>
       </c>
-      <c r="B1439" s="171"/>
+      <c r="B1439" s="169"/>
       <c r="C1439" s="46" t="s">
         <v>1850</v>
       </c>
@@ -24759,28 +24773,28 @@
       <c r="A1440" s="41" t="s">
         <v>1847</v>
       </c>
-      <c r="B1440" s="171"/>
+      <c r="B1440" s="169"/>
       <c r="C1440" s="46" t="s">
         <v>1851</v>
       </c>
     </row>
     <row r="1441" spans="1:3" ht="15.75">
       <c r="A1441" s="58"/>
-      <c r="B1441" s="171"/>
+      <c r="B1441" s="169"/>
       <c r="C1441" s="46" t="s">
         <v>1852</v>
       </c>
     </row>
     <row r="1442" spans="1:3" ht="47.25">
       <c r="A1442" s="58"/>
-      <c r="B1442" s="171"/>
+      <c r="B1442" s="169"/>
       <c r="C1442" s="46" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="1443" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1443" s="48"/>
-      <c r="B1443" s="172"/>
+      <c r="B1443" s="170"/>
       <c r="C1443" s="51"/>
     </row>
     <row r="1444" spans="1:3" ht="48" thickBot="1">
@@ -24796,7 +24810,7 @@
     </row>
     <row r="1445" spans="1:3" ht="31.5">
       <c r="A1445" s="41"/>
-      <c r="B1445" s="170" t="s">
+      <c r="B1445" s="168" t="s">
         <v>1858</v>
       </c>
       <c r="C1445" s="46" t="s">
@@ -24807,12 +24821,12 @@
       <c r="A1446" s="41" t="s">
         <v>1857</v>
       </c>
-      <c r="B1446" s="171"/>
+      <c r="B1446" s="169"/>
       <c r="C1446" s="57"/>
     </row>
     <row r="1447" spans="1:3" ht="79.5" thickBot="1">
       <c r="A1447" s="48"/>
-      <c r="B1447" s="172"/>
+      <c r="B1447" s="170"/>
       <c r="C1447" s="51" t="s">
         <v>1860</v>
       </c>
@@ -24820,7 +24834,7 @@
     <row r="1448" spans="1:3" ht="20.25">
       <c r="A1448" s="41"/>
       <c r="B1448" s="44"/>
-      <c r="C1448" s="186" t="s">
+      <c r="C1448" s="177" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -24831,7 +24845,7 @@
       <c r="B1449" s="50" t="s">
         <v>1862</v>
       </c>
-      <c r="C1449" s="188"/>
+      <c r="C1449" s="178"/>
     </row>
     <row r="1450" spans="1:3" ht="31.5">
       <c r="A1450" s="41"/>
@@ -25207,86 +25221,86 @@
     </row>
     <row r="1500" spans="1:3" ht="120">
       <c r="A1500" s="119"/>
-      <c r="B1500" s="217"/>
+      <c r="B1500" s="214"/>
       <c r="C1500" s="94" t="s">
         <v>1922</v>
       </c>
     </row>
     <row r="1501" spans="1:3" ht="25.5">
       <c r="A1501" s="119"/>
-      <c r="B1501" s="218"/>
+      <c r="B1501" s="215"/>
       <c r="C1501" s="94"/>
     </row>
     <row r="1502" spans="1:3" ht="25.5">
       <c r="A1502" s="119"/>
-      <c r="B1502" s="218"/>
+      <c r="B1502" s="215"/>
       <c r="C1502" s="94"/>
     </row>
     <row r="1503" spans="1:3" ht="60">
       <c r="A1503" s="119"/>
-      <c r="B1503" s="218"/>
+      <c r="B1503" s="215"/>
       <c r="C1503" s="94" t="s">
         <v>1923</v>
       </c>
     </row>
     <row r="1504" spans="1:3" ht="25.5">
       <c r="A1504" s="119"/>
-      <c r="B1504" s="218"/>
+      <c r="B1504" s="215"/>
       <c r="C1504" s="94"/>
     </row>
     <row r="1505" spans="1:3" ht="25.5">
       <c r="A1505" s="119"/>
-      <c r="B1505" s="218"/>
+      <c r="B1505" s="215"/>
       <c r="C1505" s="94"/>
     </row>
     <row r="1506" spans="1:3" ht="120">
       <c r="A1506" s="119"/>
-      <c r="B1506" s="218"/>
+      <c r="B1506" s="215"/>
       <c r="C1506" s="94" t="s">
         <v>1924</v>
       </c>
     </row>
     <row r="1507" spans="1:3" ht="25.5">
       <c r="A1507" s="119"/>
-      <c r="B1507" s="218"/>
+      <c r="B1507" s="215"/>
       <c r="C1507" s="94"/>
     </row>
     <row r="1508" spans="1:3" ht="25.5">
       <c r="A1508" s="119"/>
-      <c r="B1508" s="218"/>
+      <c r="B1508" s="215"/>
       <c r="C1508" s="94"/>
     </row>
     <row r="1509" spans="1:3" ht="90">
       <c r="A1509" s="120" t="s">
         <v>1920</v>
       </c>
-      <c r="B1509" s="218"/>
+      <c r="B1509" s="215"/>
       <c r="C1509" s="94" t="s">
         <v>1925</v>
       </c>
     </row>
     <row r="1510" spans="1:3" ht="20.25">
       <c r="A1510" s="121"/>
-      <c r="B1510" s="218"/>
+      <c r="B1510" s="215"/>
       <c r="C1510" s="94"/>
     </row>
     <row r="1511" spans="1:3" ht="20.25">
       <c r="A1511" s="121"/>
-      <c r="B1511" s="218"/>
+      <c r="B1511" s="215"/>
       <c r="C1511" s="94"/>
     </row>
     <row r="1512" spans="1:3" ht="76.5">
       <c r="A1512" s="122" t="s">
         <v>1921</v>
       </c>
-      <c r="B1512" s="218"/>
+      <c r="B1512" s="215"/>
       <c r="C1512" s="94" t="s">
         <v>1926</v>
       </c>
     </row>
     <row r="1513" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1513" s="123"/>
-      <c r="B1513" s="219"/>
+      <c r="B1513" s="216"/>
       <c r="C1513" s="56"/>
     </row>
     <row r="1514" spans="1:3" ht="120">
@@ -25411,7 +25425,7 @@
       <c r="C1530" s="51"/>
     </row>
     <row r="1531" spans="1:3" ht="184.5">
-      <c r="A1531" s="173" t="s">
+      <c r="A1531" s="171" t="s">
         <v>1944</v>
       </c>
       <c r="B1531" s="44"/>
@@ -25420,14 +25434,14 @@
       </c>
     </row>
     <row r="1532" spans="1:3" ht="60">
-      <c r="A1532" s="174"/>
+      <c r="A1532" s="172"/>
       <c r="B1532" s="44"/>
       <c r="C1532" s="68" t="s">
         <v>1947</v>
       </c>
     </row>
     <row r="1533" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A1533" s="175"/>
+      <c r="A1533" s="173"/>
       <c r="B1533" s="50" t="s">
         <v>1945</v>
       </c>
@@ -25436,10 +25450,10 @@
       </c>
     </row>
     <row r="1534" spans="1:3" ht="31.5">
-      <c r="A1534" s="173" t="s">
+      <c r="A1534" s="171" t="s">
         <v>1949</v>
       </c>
-      <c r="B1534" s="170" t="s">
+      <c r="B1534" s="168" t="s">
         <v>1950</v>
       </c>
       <c r="C1534" s="46" t="s">
@@ -25447,20 +25461,20 @@
       </c>
     </row>
     <row r="1535" spans="1:3" ht="15.75">
-      <c r="A1535" s="174"/>
-      <c r="B1535" s="171"/>
+      <c r="A1535" s="172"/>
+      <c r="B1535" s="169"/>
       <c r="C1535" s="124" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="15.75">
-      <c r="A1536" s="174"/>
-      <c r="B1536" s="171"/>
+      <c r="A1536" s="172"/>
+      <c r="B1536" s="169"/>
       <c r="C1536" s="124"/>
     </row>
     <row r="1537" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A1537" s="175"/>
-      <c r="B1537" s="172"/>
+      <c r="A1537" s="173"/>
+      <c r="B1537" s="170"/>
       <c r="C1537" s="125" t="s">
         <v>453</v>
       </c>
@@ -25469,7 +25483,7 @@
       <c r="A1538" s="41" t="s">
         <v>1952</v>
       </c>
-      <c r="B1538" s="170" t="s">
+      <c r="B1538" s="168" t="s">
         <v>1954</v>
       </c>
       <c r="C1538" s="46" t="s">
@@ -25478,26 +25492,26 @@
     </row>
     <row r="1539" spans="1:3" ht="20.25">
       <c r="A1539" s="41"/>
-      <c r="B1539" s="171"/>
+      <c r="B1539" s="169"/>
       <c r="C1539" s="46"/>
     </row>
     <row r="1540" spans="1:3" ht="110.25">
       <c r="A1540" s="41"/>
-      <c r="B1540" s="171"/>
+      <c r="B1540" s="169"/>
       <c r="C1540" s="46" t="s">
         <v>1956</v>
       </c>
     </row>
     <row r="1541" spans="1:3" ht="20.25">
       <c r="A1541" s="41"/>
-      <c r="B1541" s="171"/>
+      <c r="B1541" s="169"/>
       <c r="C1541" s="46"/>
     </row>
     <row r="1542" spans="1:3" ht="111" thickBot="1">
       <c r="A1542" s="43" t="s">
         <v>1953</v>
       </c>
-      <c r="B1542" s="172"/>
+      <c r="B1542" s="170"/>
       <c r="C1542" s="51" t="s">
         <v>1957</v>
       </c>
@@ -25539,10 +25553,10 @@
       <c r="A1546" s="41" t="s">
         <v>1967</v>
       </c>
-      <c r="B1546" s="170" t="s">
+      <c r="B1546" s="168" t="s">
         <v>1969</v>
       </c>
-      <c r="C1546" s="192" t="s">
+      <c r="C1546" s="181" t="s">
         <v>1970</v>
       </c>
     </row>
@@ -25550,8 +25564,8 @@
       <c r="A1547" s="43" t="s">
         <v>1968</v>
       </c>
-      <c r="B1547" s="172"/>
-      <c r="C1547" s="193"/>
+      <c r="B1547" s="170"/>
+      <c r="C1547" s="182"/>
     </row>
     <row r="1548" spans="1:3" ht="63.75" thickBot="1">
       <c r="A1548" s="43" t="s">
@@ -25602,7 +25616,7 @@
     <row r="1554" spans="1:3" ht="20.25">
       <c r="A1554" s="41"/>
       <c r="B1554" s="44"/>
-      <c r="C1554" s="186" t="s">
+      <c r="C1554" s="177" t="s">
         <v>1982</v>
       </c>
     </row>
@@ -25611,29 +25625,29 @@
         <v>1979</v>
       </c>
       <c r="B1555" s="62"/>
-      <c r="C1555" s="187"/>
+      <c r="C1555" s="211"/>
     </row>
     <row r="1556" spans="1:3" ht="20.25">
       <c r="A1556" s="41" t="s">
         <v>1980</v>
       </c>
       <c r="B1556" s="44"/>
-      <c r="C1556" s="187"/>
+      <c r="C1556" s="211"/>
     </row>
     <row r="1557" spans="1:3" ht="18.75">
       <c r="A1557" s="58"/>
       <c r="B1557" s="44"/>
-      <c r="C1557" s="187"/>
+      <c r="C1557" s="211"/>
     </row>
     <row r="1558" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1558" s="48"/>
       <c r="B1558" s="50" t="s">
         <v>1981</v>
       </c>
-      <c r="C1558" s="188"/>
+      <c r="C1558" s="178"/>
     </row>
     <row r="1559" spans="1:3" ht="31.5">
-      <c r="A1559" s="209" t="s">
+      <c r="A1559" s="194" t="s">
         <v>1983</v>
       </c>
       <c r="B1559" s="44"/>
@@ -25642,14 +25656,14 @@
       </c>
     </row>
     <row r="1560" spans="1:3" ht="31.5">
-      <c r="A1560" s="216"/>
+      <c r="A1560" s="213"/>
       <c r="B1560" s="44"/>
       <c r="C1560" s="49" t="s">
         <v>1986</v>
       </c>
     </row>
     <row r="1561" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1561" s="210"/>
+      <c r="A1561" s="195"/>
       <c r="B1561" s="50" t="s">
         <v>1984</v>
       </c>
@@ -25681,37 +25695,37 @@
     </row>
     <row r="1564" spans="1:3" ht="20.25">
       <c r="A1564" s="41"/>
-      <c r="B1564" s="170" t="s">
+      <c r="B1564" s="168" t="s">
         <v>1995</v>
       </c>
-      <c r="C1564" s="186" t="s">
+      <c r="C1564" s="177" t="s">
         <v>1996</v>
       </c>
     </row>
     <row r="1565" spans="1:3" ht="20.25">
       <c r="A1565" s="41"/>
-      <c r="B1565" s="171"/>
-      <c r="C1565" s="187"/>
+      <c r="B1565" s="169"/>
+      <c r="C1565" s="211"/>
     </row>
     <row r="1566" spans="1:3" ht="20.25">
       <c r="A1566" s="41" t="s">
         <v>1979</v>
       </c>
-      <c r="B1566" s="171"/>
-      <c r="C1566" s="187"/>
+      <c r="B1566" s="169"/>
+      <c r="C1566" s="211"/>
     </row>
     <row r="1567" spans="1:3" ht="21" thickBot="1">
       <c r="A1567" s="43" t="s">
         <v>1994</v>
       </c>
-      <c r="B1567" s="172"/>
-      <c r="C1567" s="188"/>
+      <c r="B1567" s="170"/>
+      <c r="C1567" s="178"/>
     </row>
     <row r="1568" spans="1:3" ht="31.5">
       <c r="A1568" s="52" t="s">
         <v>1997</v>
       </c>
-      <c r="B1568" s="170" t="s">
+      <c r="B1568" s="168" t="s">
         <v>2000</v>
       </c>
       <c r="C1568" s="46" t="s">
@@ -25720,19 +25734,19 @@
     </row>
     <row r="1569" spans="1:3" ht="20.25">
       <c r="A1569" s="41"/>
-      <c r="B1569" s="171"/>
+      <c r="B1569" s="169"/>
       <c r="C1569" s="57"/>
     </row>
     <row r="1570" spans="1:3" ht="78.75">
       <c r="A1570" s="41"/>
-      <c r="B1570" s="171"/>
+      <c r="B1570" s="169"/>
       <c r="C1570" s="46" t="s">
         <v>2002</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="63">
       <c r="A1571" s="58"/>
-      <c r="B1571" s="171"/>
+      <c r="B1571" s="169"/>
       <c r="C1571" s="46" t="s">
         <v>2003</v>
       </c>
@@ -25741,27 +25755,27 @@
       <c r="A1572" s="41" t="s">
         <v>1998</v>
       </c>
-      <c r="B1572" s="171"/>
+      <c r="B1572" s="169"/>
       <c r="C1572" s="46" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="1573" spans="1:3" ht="20.25">
       <c r="A1573" s="41"/>
-      <c r="B1573" s="171"/>
+      <c r="B1573" s="169"/>
       <c r="C1573" s="57"/>
     </row>
     <row r="1574" spans="1:3" ht="41.25" thickBot="1">
       <c r="A1574" s="43" t="s">
         <v>1999</v>
       </c>
-      <c r="B1574" s="172"/>
+      <c r="B1574" s="170"/>
       <c r="C1574" s="51" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="47.25">
-      <c r="A1575" s="173" t="s">
+      <c r="A1575" s="171" t="s">
         <v>2004</v>
       </c>
       <c r="B1575" s="44"/>
@@ -25770,21 +25784,21 @@
       </c>
     </row>
     <row r="1576" spans="1:3" ht="31.5">
-      <c r="A1576" s="174"/>
+      <c r="A1576" s="172"/>
       <c r="B1576" s="62"/>
       <c r="C1576" s="46" t="s">
         <v>2007</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="18.75">
-      <c r="A1577" s="174"/>
+      <c r="A1577" s="172"/>
       <c r="B1577" s="44" t="s">
         <v>2005</v>
       </c>
       <c r="C1577" s="46"/>
     </row>
     <row r="1578" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1578" s="175"/>
+      <c r="A1578" s="173"/>
       <c r="B1578" s="45"/>
       <c r="C1578" s="51" t="s">
         <v>1929</v>
@@ -25795,7 +25809,7 @@
         <v>2008</v>
       </c>
       <c r="B1579" s="44"/>
-      <c r="C1579" s="211" t="s">
+      <c r="C1579" s="191" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -25806,12 +25820,12 @@
       <c r="B1580" s="50" t="s">
         <v>2010</v>
       </c>
-      <c r="C1580" s="212"/>
+      <c r="C1580" s="193"/>
     </row>
     <row r="1581" spans="1:3" ht="20.25">
       <c r="A1581" s="41"/>
       <c r="B1581" s="44"/>
-      <c r="C1581" s="213" t="s">
+      <c r="C1581" s="217" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -25820,14 +25834,14 @@
         <v>2012</v>
       </c>
       <c r="B1582" s="44"/>
-      <c r="C1582" s="214"/>
+      <c r="C1582" s="218"/>
     </row>
     <row r="1583" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1583" s="48"/>
       <c r="B1583" s="50" t="s">
         <v>1891</v>
       </c>
-      <c r="C1583" s="215"/>
+      <c r="C1583" s="219"/>
     </row>
     <row r="1584" spans="1:3" ht="78" thickBot="1">
       <c r="A1584" s="43" t="s">
@@ -25900,26 +25914,26 @@
       </c>
     </row>
     <row r="1592" spans="1:3">
-      <c r="A1592" s="173" t="s">
+      <c r="A1592" s="171" t="s">
         <v>2022</v>
       </c>
-      <c r="B1592" s="170" t="s">
+      <c r="B1592" s="168" t="s">
         <v>2023</v>
       </c>
-      <c r="C1592" s="213" t="s">
+      <c r="C1592" s="217" t="s">
         <v>2024</v>
       </c>
     </row>
     <row r="1593" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1593" s="175"/>
-      <c r="B1593" s="172"/>
-      <c r="C1593" s="215"/>
+      <c r="A1593" s="173"/>
+      <c r="B1593" s="170"/>
+      <c r="C1593" s="219"/>
     </row>
     <row r="1594" spans="1:3" ht="47.25">
-      <c r="A1594" s="173" t="s">
+      <c r="A1594" s="171" t="s">
         <v>2025</v>
       </c>
-      <c r="B1594" s="170" t="s">
+      <c r="B1594" s="168" t="s">
         <v>2026</v>
       </c>
       <c r="C1594" s="126" t="s">
@@ -25927,8 +25941,8 @@
       </c>
     </row>
     <row r="1595" spans="1:3" ht="79.5" thickBot="1">
-      <c r="A1595" s="175"/>
-      <c r="B1595" s="172"/>
+      <c r="A1595" s="173"/>
+      <c r="B1595" s="170"/>
       <c r="C1595" s="128" t="s">
         <v>2028</v>
       </c>
@@ -26064,10 +26078,10 @@
       </c>
     </row>
     <row r="1616" spans="1:3" ht="31.5">
-      <c r="A1616" s="173" t="s">
+      <c r="A1616" s="171" t="s">
         <v>2047</v>
       </c>
-      <c r="B1616" s="170" t="s">
+      <c r="B1616" s="168" t="s">
         <v>2048</v>
       </c>
       <c r="C1616" s="49" t="s">
@@ -26075,29 +26089,29 @@
       </c>
     </row>
     <row r="1617" spans="1:3" ht="15.75">
-      <c r="A1617" s="174"/>
-      <c r="B1617" s="171"/>
+      <c r="A1617" s="172"/>
+      <c r="B1617" s="169"/>
       <c r="C1617" s="49" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="1618" spans="1:3" ht="47.25">
-      <c r="A1618" s="174"/>
-      <c r="B1618" s="171"/>
+      <c r="A1618" s="172"/>
+      <c r="B1618" s="169"/>
       <c r="C1618" s="49" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="1619" spans="1:3" ht="15.75">
-      <c r="A1619" s="174"/>
-      <c r="B1619" s="171"/>
+      <c r="A1619" s="172"/>
+      <c r="B1619" s="169"/>
       <c r="C1619" s="49" t="s">
         <v>2052</v>
       </c>
     </row>
     <row r="1620" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A1620" s="175"/>
-      <c r="B1620" s="172"/>
+      <c r="A1620" s="173"/>
+      <c r="B1620" s="170"/>
       <c r="C1620" s="63" t="s">
         <v>2053</v>
       </c>
@@ -26114,10 +26128,10 @@
       </c>
     </row>
     <row r="1622" spans="1:3" ht="60">
-      <c r="A1622" s="173" t="s">
+      <c r="A1622" s="171" t="s">
         <v>2057</v>
       </c>
-      <c r="B1622" s="170" t="s">
+      <c r="B1622" s="168" t="s">
         <v>2058</v>
       </c>
       <c r="C1622" s="94" t="s">
@@ -26125,29 +26139,29 @@
       </c>
     </row>
     <row r="1623" spans="1:3" ht="15.75">
-      <c r="A1623" s="174"/>
-      <c r="B1623" s="171"/>
+      <c r="A1623" s="172"/>
+      <c r="B1623" s="169"/>
       <c r="C1623" s="95" t="s">
         <v>2060</v>
       </c>
     </row>
     <row r="1624" spans="1:3" ht="45">
-      <c r="A1624" s="174"/>
-      <c r="B1624" s="171"/>
+      <c r="A1624" s="172"/>
+      <c r="B1624" s="169"/>
       <c r="C1624" s="94" t="s">
         <v>2061</v>
       </c>
     </row>
     <row r="1625" spans="1:3" ht="30">
-      <c r="A1625" s="174"/>
-      <c r="B1625" s="171"/>
+      <c r="A1625" s="172"/>
+      <c r="B1625" s="169"/>
       <c r="C1625" s="94" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="1626" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1626" s="175"/>
-      <c r="B1626" s="172"/>
+      <c r="A1626" s="173"/>
+      <c r="B1626" s="170"/>
       <c r="C1626" s="97" t="s">
         <v>2063</v>
       </c>
@@ -26218,7 +26232,7 @@
         <v>2071</v>
       </c>
       <c r="B1636" s="44"/>
-      <c r="C1636" s="206" t="s">
+      <c r="C1636" s="189" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -26227,14 +26241,14 @@
         <v>2072</v>
       </c>
       <c r="B1637" s="44"/>
-      <c r="C1637" s="207"/>
+      <c r="C1637" s="223"/>
     </row>
     <row r="1638" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1638" s="48"/>
       <c r="B1638" s="50" t="s">
         <v>2073</v>
       </c>
-      <c r="C1638" s="208"/>
+      <c r="C1638" s="190"/>
     </row>
     <row r="1639" spans="1:3" ht="32.25" thickBot="1">
       <c r="A1639" s="43" t="s">
@@ -26248,10 +26262,10 @@
       </c>
     </row>
     <row r="1640" spans="1:3" ht="15.75">
-      <c r="A1640" s="173" t="s">
+      <c r="A1640" s="171" t="s">
         <v>2078</v>
       </c>
-      <c r="B1640" s="170" t="s">
+      <c r="B1640" s="168" t="s">
         <v>1216</v>
       </c>
       <c r="C1640" s="46" t="s">
@@ -26259,70 +26273,70 @@
       </c>
     </row>
     <row r="1641" spans="1:3" ht="15.75">
-      <c r="A1641" s="174"/>
-      <c r="B1641" s="171"/>
+      <c r="A1641" s="172"/>
+      <c r="B1641" s="169"/>
       <c r="C1641" s="57"/>
     </row>
     <row r="1642" spans="1:3" ht="15.75">
-      <c r="A1642" s="174"/>
-      <c r="B1642" s="171"/>
+      <c r="A1642" s="172"/>
+      <c r="B1642" s="169"/>
       <c r="C1642" s="46" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="1643" spans="1:3" ht="15.75">
-      <c r="A1643" s="174"/>
-      <c r="B1643" s="171"/>
+      <c r="A1643" s="172"/>
+      <c r="B1643" s="169"/>
       <c r="C1643" s="57"/>
     </row>
     <row r="1644" spans="1:3" ht="47.25">
-      <c r="A1644" s="174"/>
-      <c r="B1644" s="171"/>
+      <c r="A1644" s="172"/>
+      <c r="B1644" s="169"/>
       <c r="C1644" s="46" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="1645" spans="1:3" ht="15.75">
-      <c r="A1645" s="174"/>
-      <c r="B1645" s="171"/>
+      <c r="A1645" s="172"/>
+      <c r="B1645" s="169"/>
       <c r="C1645" s="46"/>
     </row>
     <row r="1646" spans="1:3" ht="15.75">
-      <c r="A1646" s="174"/>
-      <c r="B1646" s="171"/>
+      <c r="A1646" s="172"/>
+      <c r="B1646" s="169"/>
       <c r="C1646" s="54" t="s">
         <v>2079</v>
       </c>
     </row>
     <row r="1647" spans="1:3" ht="15.75">
-      <c r="A1647" s="174"/>
-      <c r="B1647" s="171"/>
+      <c r="A1647" s="172"/>
+      <c r="B1647" s="169"/>
       <c r="C1647" s="54" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="1648" spans="1:3" ht="48" thickBot="1">
-      <c r="A1648" s="175"/>
-      <c r="B1648" s="172"/>
+      <c r="A1648" s="173"/>
+      <c r="B1648" s="170"/>
       <c r="C1648" s="53" t="s">
         <v>2081</v>
       </c>
     </row>
     <row r="1649" spans="1:3" ht="18.75">
-      <c r="A1649" s="209" t="s">
+      <c r="A1649" s="194" t="s">
         <v>2082</v>
       </c>
       <c r="B1649" s="44"/>
-      <c r="C1649" s="211" t="s">
+      <c r="C1649" s="191" t="s">
         <v>2084</v>
       </c>
     </row>
     <row r="1650" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1650" s="210"/>
+      <c r="A1650" s="195"/>
       <c r="B1650" s="50" t="s">
         <v>2083</v>
       </c>
-      <c r="C1650" s="212"/>
+      <c r="C1650" s="193"/>
     </row>
     <row r="1651" spans="1:3">
       <c r="A1651" s="66"/>
@@ -26423,7 +26437,7 @@
       <c r="A1672" s="41" t="s">
         <v>2095</v>
       </c>
-      <c r="B1672" s="203" t="s">
+      <c r="B1672" s="220" t="s">
         <v>2097</v>
       </c>
       <c r="C1672" s="46" t="s">
@@ -26434,16 +26448,16 @@
       <c r="A1673" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="B1673" s="205"/>
+      <c r="B1673" s="222"/>
       <c r="C1673" s="51" t="s">
         <v>2099</v>
       </c>
     </row>
     <row r="1674" spans="1:3" ht="60">
-      <c r="A1674" s="173" t="s">
+      <c r="A1674" s="171" t="s">
         <v>2100</v>
       </c>
-      <c r="B1674" s="203" t="s">
+      <c r="B1674" s="220" t="s">
         <v>2101</v>
       </c>
       <c r="C1674" s="94" t="s">
@@ -26451,13 +26465,13 @@
       </c>
     </row>
     <row r="1675" spans="1:3" ht="15.75">
-      <c r="A1675" s="174"/>
-      <c r="B1675" s="204"/>
+      <c r="A1675" s="172"/>
+      <c r="B1675" s="221"/>
       <c r="C1675" s="46"/>
     </row>
     <row r="1676" spans="1:3" ht="95.25" thickBot="1">
-      <c r="A1676" s="175"/>
-      <c r="B1676" s="205"/>
+      <c r="A1676" s="173"/>
+      <c r="B1676" s="222"/>
       <c r="C1676" s="56" t="s">
         <v>2103</v>
       </c>
@@ -26516,7 +26530,7 @@
       <c r="A1691" s="41" t="s">
         <v>2105</v>
       </c>
-      <c r="B1691" s="170" t="s">
+      <c r="B1691" s="168" t="s">
         <v>2104</v>
       </c>
       <c r="C1691" s="46" t="s">
@@ -26525,7 +26539,7 @@
     </row>
     <row r="1692" spans="1:3" ht="63">
       <c r="A1692" s="41"/>
-      <c r="B1692" s="171"/>
+      <c r="B1692" s="169"/>
       <c r="C1692" s="54" t="s">
         <v>2108</v>
       </c>
@@ -26534,7 +26548,7 @@
       <c r="A1693" s="55" t="s">
         <v>2106</v>
       </c>
-      <c r="B1693" s="172"/>
+      <c r="B1693" s="170"/>
       <c r="C1693" s="53" t="s">
         <v>2109</v>
       </c>
@@ -26543,7 +26557,7 @@
       <c r="A1694" s="41" t="s">
         <v>2110</v>
       </c>
-      <c r="B1694" s="170" t="s">
+      <c r="B1694" s="168" t="s">
         <v>2111</v>
       </c>
       <c r="C1694" s="46" t="s">
@@ -26552,7 +26566,7 @@
     </row>
     <row r="1695" spans="1:3" ht="63">
       <c r="A1695" s="41"/>
-      <c r="B1695" s="171"/>
+      <c r="B1695" s="169"/>
       <c r="C1695" s="54" t="s">
         <v>2113</v>
       </c>
@@ -26561,7 +26575,7 @@
       <c r="A1696" s="55" t="s">
         <v>2106</v>
       </c>
-      <c r="B1696" s="172"/>
+      <c r="B1696" s="170"/>
       <c r="C1696" s="131" t="s">
         <v>2114</v>
       </c>
@@ -26569,7 +26583,7 @@
     <row r="1697" spans="1:3" ht="20.25">
       <c r="A1697" s="42"/>
       <c r="B1697" s="44"/>
-      <c r="C1697" s="186" t="s">
+      <c r="C1697" s="177" t="s">
         <v>2119</v>
       </c>
     </row>
@@ -26578,14 +26592,14 @@
         <v>2115</v>
       </c>
       <c r="B1698" s="44"/>
-      <c r="C1698" s="187"/>
+      <c r="C1698" s="211"/>
     </row>
     <row r="1699" spans="1:3" ht="20.25">
       <c r="A1699" s="41" t="s">
         <v>2116</v>
       </c>
       <c r="B1699" s="44"/>
-      <c r="C1699" s="187"/>
+      <c r="C1699" s="211"/>
     </row>
     <row r="1700" spans="1:3" ht="20.25">
       <c r="A1700" s="41" t="s">
@@ -26594,19 +26608,19 @@
       <c r="B1700" s="44" t="s">
         <v>2118</v>
       </c>
-      <c r="C1700" s="187"/>
+      <c r="C1700" s="211"/>
     </row>
     <row r="1701" spans="1:3" ht="20.25">
       <c r="A1701" s="41"/>
       <c r="B1701" s="59"/>
-      <c r="C1701" s="187"/>
+      <c r="C1701" s="211"/>
     </row>
     <row r="1702" spans="1:3" ht="61.5" thickBot="1">
       <c r="A1702" s="55" t="s">
         <v>2106</v>
       </c>
       <c r="B1702" s="45"/>
-      <c r="C1702" s="188"/>
+      <c r="C1702" s="178"/>
     </row>
     <row r="1703" spans="1:3" ht="126">
       <c r="A1703" s="42"/>
@@ -26675,7 +26689,7 @@
       <c r="A1712" s="52" t="s">
         <v>2125</v>
       </c>
-      <c r="B1712" s="170" t="s">
+      <c r="B1712" s="168" t="s">
         <v>2127</v>
       </c>
       <c r="C1712" s="46" t="s">
@@ -26684,7 +26698,7 @@
     </row>
     <row r="1713" spans="1:3" ht="63">
       <c r="A1713" s="52"/>
-      <c r="B1713" s="171"/>
+      <c r="B1713" s="169"/>
       <c r="C1713" s="54" t="s">
         <v>2129</v>
       </c>
@@ -26693,14 +26707,14 @@
       <c r="A1714" s="55" t="s">
         <v>2126</v>
       </c>
-      <c r="B1714" s="172"/>
+      <c r="B1714" s="170"/>
       <c r="C1714" s="45"/>
     </row>
     <row r="1715" spans="1:3" ht="63">
       <c r="A1715" s="52" t="s">
         <v>2130</v>
       </c>
-      <c r="B1715" s="170" t="s">
+      <c r="B1715" s="168" t="s">
         <v>2127</v>
       </c>
       <c r="C1715" s="46" t="s">
@@ -26709,7 +26723,7 @@
     </row>
     <row r="1716" spans="1:3" ht="94.5">
       <c r="A1716" s="52"/>
-      <c r="B1716" s="171"/>
+      <c r="B1716" s="169"/>
       <c r="C1716" s="54" t="s">
         <v>2132</v>
       </c>
@@ -26718,14 +26732,14 @@
       <c r="A1717" s="55" t="s">
         <v>2126</v>
       </c>
-      <c r="B1717" s="172"/>
+      <c r="B1717" s="170"/>
       <c r="C1717" s="45"/>
     </row>
     <row r="1718" spans="1:3" ht="47.25">
       <c r="A1718" s="41" t="s">
         <v>2133</v>
       </c>
-      <c r="B1718" s="170" t="s">
+      <c r="B1718" s="168" t="s">
         <v>2136</v>
       </c>
       <c r="C1718" s="46" t="s">
@@ -26736,21 +26750,21 @@
       <c r="A1719" s="41" t="s">
         <v>2134</v>
       </c>
-      <c r="B1719" s="171"/>
+      <c r="B1719" s="169"/>
       <c r="C1719" s="59"/>
     </row>
     <row r="1720" spans="1:3" ht="60.75">
       <c r="A1720" s="41" t="s">
         <v>2135</v>
       </c>
-      <c r="B1720" s="171"/>
+      <c r="B1720" s="169"/>
       <c r="C1720" s="46" t="s">
         <v>2138</v>
       </c>
     </row>
     <row r="1721" spans="1:3" ht="48" thickBot="1">
       <c r="A1721" s="48"/>
-      <c r="B1721" s="172"/>
+      <c r="B1721" s="170"/>
       <c r="C1721" s="53" t="s">
         <v>2139</v>
       </c>
@@ -26759,7 +26773,7 @@
       <c r="A1722" s="41" t="s">
         <v>2140</v>
       </c>
-      <c r="B1722" s="170" t="s">
+      <c r="B1722" s="168" t="s">
         <v>2142</v>
       </c>
       <c r="C1722" s="94" t="s">
@@ -26768,48 +26782,48 @@
     </row>
     <row r="1723" spans="1:3" ht="20.25">
       <c r="A1723" s="41"/>
-      <c r="B1723" s="171"/>
+      <c r="B1723" s="169"/>
       <c r="C1723" s="94"/>
     </row>
     <row r="1724" spans="1:3" ht="30">
       <c r="A1724" s="41"/>
-      <c r="B1724" s="171"/>
+      <c r="B1724" s="169"/>
       <c r="C1724" s="68" t="s">
         <v>2144</v>
       </c>
     </row>
     <row r="1725" spans="1:3" ht="20.25">
       <c r="A1725" s="41"/>
-      <c r="B1725" s="171"/>
+      <c r="B1725" s="169"/>
       <c r="C1725" s="68" t="s">
         <v>2145</v>
       </c>
     </row>
     <row r="1726" spans="1:3" ht="20.25">
       <c r="A1726" s="41"/>
-      <c r="B1726" s="171"/>
+      <c r="B1726" s="169"/>
       <c r="C1726" s="68"/>
     </row>
     <row r="1727" spans="1:3" ht="20.25">
       <c r="A1727" s="41"/>
-      <c r="B1727" s="171"/>
+      <c r="B1727" s="169"/>
       <c r="C1727" s="68"/>
     </row>
     <row r="1728" spans="1:3" ht="63">
       <c r="A1728" s="41"/>
-      <c r="B1728" s="171"/>
+      <c r="B1728" s="169"/>
       <c r="C1728" s="94" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="1729" spans="1:3" ht="20.25">
       <c r="A1729" s="41"/>
-      <c r="B1729" s="171"/>
+      <c r="B1729" s="169"/>
       <c r="C1729" s="49"/>
     </row>
     <row r="1730" spans="1:3" ht="63">
       <c r="A1730" s="58"/>
-      <c r="B1730" s="171"/>
+      <c r="B1730" s="169"/>
       <c r="C1730" s="57" t="s">
         <v>2147</v>
       </c>
@@ -26818,7 +26832,7 @@
       <c r="A1731" s="43" t="s">
         <v>2141</v>
       </c>
-      <c r="B1731" s="172"/>
+      <c r="B1731" s="170"/>
       <c r="C1731" s="45"/>
     </row>
     <row r="1732" spans="1:3" ht="79.5" thickBot="1">
@@ -26847,7 +26861,7 @@
       <c r="A1734" s="41" t="s">
         <v>2154</v>
       </c>
-      <c r="B1734" s="170" t="s">
+      <c r="B1734" s="168" t="s">
         <v>2155</v>
       </c>
       <c r="C1734" s="49" t="s">
@@ -26858,7 +26872,7 @@
       <c r="A1735" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="B1735" s="172"/>
+      <c r="B1735" s="170"/>
       <c r="C1735" s="47" t="s">
         <v>2157</v>
       </c>
@@ -26867,10 +26881,10 @@
       <c r="A1736" s="41" t="s">
         <v>2158</v>
       </c>
-      <c r="B1736" s="170" t="s">
+      <c r="B1736" s="168" t="s">
         <v>2161</v>
       </c>
-      <c r="C1736" s="186" t="s">
+      <c r="C1736" s="177" t="s">
         <v>2162</v>
       </c>
     </row>
@@ -26878,24 +26892,24 @@
       <c r="A1737" s="41" t="s">
         <v>2159</v>
       </c>
-      <c r="B1737" s="171"/>
-      <c r="C1737" s="187"/>
+      <c r="B1737" s="169"/>
+      <c r="C1737" s="211"/>
     </row>
     <row r="1738" spans="1:3" ht="21" thickBot="1">
       <c r="A1738" s="43" t="s">
         <v>2160</v>
       </c>
-      <c r="B1738" s="172"/>
-      <c r="C1738" s="188"/>
+      <c r="B1738" s="170"/>
+      <c r="C1738" s="178"/>
     </row>
     <row r="1739" spans="1:3" ht="20.25">
       <c r="A1739" s="41" t="s">
         <v>2158</v>
       </c>
-      <c r="B1739" s="170" t="s">
+      <c r="B1739" s="168" t="s">
         <v>2164</v>
       </c>
-      <c r="C1739" s="186" t="s">
+      <c r="C1739" s="177" t="s">
         <v>2165</v>
       </c>
     </row>
@@ -26903,31 +26917,31 @@
       <c r="A1740" s="41" t="s">
         <v>2159</v>
       </c>
-      <c r="B1740" s="171"/>
-      <c r="C1740" s="187"/>
+      <c r="B1740" s="169"/>
+      <c r="C1740" s="211"/>
     </row>
     <row r="1741" spans="1:3" ht="20.25">
       <c r="A1741" s="41" t="s">
         <v>2160</v>
       </c>
-      <c r="B1741" s="171"/>
-      <c r="C1741" s="187"/>
+      <c r="B1741" s="169"/>
+      <c r="C1741" s="211"/>
     </row>
     <row r="1742" spans="1:3" ht="41.25" thickBot="1">
       <c r="A1742" s="43" t="s">
         <v>2163</v>
       </c>
-      <c r="B1742" s="172"/>
-      <c r="C1742" s="188"/>
+      <c r="B1742" s="170"/>
+      <c r="C1742" s="178"/>
     </row>
     <row r="1743" spans="1:3" ht="20.25">
       <c r="A1743" s="41" t="s">
         <v>2166</v>
       </c>
-      <c r="B1743" s="170" t="s">
+      <c r="B1743" s="168" t="s">
         <v>2169</v>
       </c>
-      <c r="C1743" s="186" t="s">
+      <c r="C1743" s="177" t="s">
         <v>2170</v>
       </c>
     </row>
@@ -26935,24 +26949,24 @@
       <c r="A1744" s="41" t="s">
         <v>2167</v>
       </c>
-      <c r="B1744" s="171"/>
-      <c r="C1744" s="187"/>
+      <c r="B1744" s="169"/>
+      <c r="C1744" s="211"/>
     </row>
     <row r="1745" spans="1:3" ht="41.25" thickBot="1">
       <c r="A1745" s="43" t="s">
         <v>2168</v>
       </c>
-      <c r="B1745" s="172"/>
-      <c r="C1745" s="188"/>
+      <c r="B1745" s="170"/>
+      <c r="C1745" s="178"/>
     </row>
     <row r="1746" spans="1:3" ht="20.25">
       <c r="A1746" s="41" t="s">
         <v>2115</v>
       </c>
-      <c r="B1746" s="170" t="s">
+      <c r="B1746" s="168" t="s">
         <v>2172</v>
       </c>
-      <c r="C1746" s="186" t="s">
+      <c r="C1746" s="177" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -26960,8 +26974,8 @@
       <c r="A1747" s="43" t="s">
         <v>2171</v>
       </c>
-      <c r="B1747" s="172"/>
-      <c r="C1747" s="188"/>
+      <c r="B1747" s="170"/>
+      <c r="C1747" s="178"/>
     </row>
     <row r="1748" spans="1:3">
       <c r="A1748" s="65"/>
@@ -27011,10 +27025,10 @@
       <c r="A1760" s="41" t="s">
         <v>2175</v>
       </c>
-      <c r="B1760" s="170" t="s">
+      <c r="B1760" s="168" t="s">
         <v>2176</v>
       </c>
-      <c r="C1760" s="186" t="s">
+      <c r="C1760" s="177" t="s">
         <v>2177</v>
       </c>
     </row>
@@ -27022,14 +27036,14 @@
       <c r="A1761" s="43" t="s">
         <v>1231</v>
       </c>
-      <c r="B1761" s="172"/>
-      <c r="C1761" s="188"/>
+      <c r="B1761" s="170"/>
+      <c r="C1761" s="178"/>
     </row>
     <row r="1762" spans="1:3" ht="20.25">
       <c r="A1762" s="41" t="s">
         <v>2178</v>
       </c>
-      <c r="B1762" s="170" t="s">
+      <c r="B1762" s="168" t="s">
         <v>2179</v>
       </c>
       <c r="C1762" s="46" t="s">
@@ -27040,56 +27054,56 @@
       <c r="A1763" s="41" t="s">
         <v>1231</v>
       </c>
-      <c r="B1763" s="171"/>
+      <c r="B1763" s="169"/>
       <c r="C1763" s="46" t="s">
         <v>2181</v>
       </c>
     </row>
     <row r="1764" spans="1:3" ht="31.5">
       <c r="A1764" s="58"/>
-      <c r="B1764" s="171"/>
+      <c r="B1764" s="169"/>
       <c r="C1764" s="46" t="s">
         <v>2182</v>
       </c>
     </row>
     <row r="1765" spans="1:3" ht="15.75">
       <c r="A1765" s="58"/>
-      <c r="B1765" s="171"/>
+      <c r="B1765" s="169"/>
       <c r="C1765" s="46" t="s">
         <v>2183</v>
       </c>
     </row>
     <row r="1766" spans="1:3" ht="31.5">
       <c r="A1766" s="58"/>
-      <c r="B1766" s="171"/>
+      <c r="B1766" s="169"/>
       <c r="C1766" s="46" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="1767" spans="1:3" ht="15.75">
       <c r="A1767" s="58"/>
-      <c r="B1767" s="171"/>
+      <c r="B1767" s="169"/>
       <c r="C1767" s="46" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="1768" spans="1:3" ht="15.75">
       <c r="A1768" s="58"/>
-      <c r="B1768" s="171"/>
+      <c r="B1768" s="169"/>
       <c r="C1768" s="46" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="1769" spans="1:3" ht="15.75">
       <c r="A1769" s="58"/>
-      <c r="B1769" s="171"/>
+      <c r="B1769" s="169"/>
       <c r="C1769" s="46" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="1770" spans="1:3" ht="111" thickBot="1">
       <c r="A1770" s="48"/>
-      <c r="B1770" s="172"/>
+      <c r="B1770" s="170"/>
       <c r="C1770" s="53" t="s">
         <v>2188</v>
       </c>
@@ -27109,10 +27123,10 @@
       <c r="A1772" s="41" t="s">
         <v>2192</v>
       </c>
-      <c r="B1772" s="170" t="s">
+      <c r="B1772" s="168" t="s">
         <v>2193</v>
       </c>
-      <c r="C1772" s="186" t="s">
+      <c r="C1772" s="177" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -27120,8 +27134,8 @@
       <c r="A1773" s="43" t="s">
         <v>1231</v>
       </c>
-      <c r="B1773" s="172"/>
-      <c r="C1773" s="188"/>
+      <c r="B1773" s="170"/>
+      <c r="C1773" s="178"/>
     </row>
     <row r="1774" spans="1:3">
       <c r="A1774" s="66"/>
@@ -27185,16 +27199,16 @@
       </c>
     </row>
     <row r="1791" spans="1:3" ht="21" thickBot="1">
-      <c r="A1791" s="189" t="s">
+      <c r="A1791" s="239" t="s">
         <v>2197</v>
       </c>
-      <c r="B1791" s="190"/>
-      <c r="C1791" s="191"/>
+      <c r="B1791" s="240"/>
+      <c r="C1791" s="241"/>
     </row>
     <row r="1792" spans="1:3" ht="20.25">
       <c r="A1792" s="41"/>
       <c r="B1792" s="44"/>
-      <c r="C1792" s="186" t="s">
+      <c r="C1792" s="177" t="s">
         <v>2200</v>
       </c>
     </row>
@@ -27203,7 +27217,7 @@
         <v>2198</v>
       </c>
       <c r="B1793" s="44"/>
-      <c r="C1793" s="187"/>
+      <c r="C1793" s="211"/>
     </row>
     <row r="1794" spans="1:3" ht="20.25">
       <c r="A1794" s="133" t="s">
@@ -27212,12 +27226,12 @@
       <c r="B1794" s="44" t="s">
         <v>2199</v>
       </c>
-      <c r="C1794" s="187"/>
+      <c r="C1794" s="211"/>
     </row>
     <row r="1795" spans="1:3" ht="21" thickBot="1">
       <c r="A1795" s="43"/>
       <c r="B1795" s="45"/>
-      <c r="C1795" s="188"/>
+      <c r="C1795" s="178"/>
     </row>
     <row r="1796" spans="1:3" ht="31.5">
       <c r="A1796" s="41"/>
@@ -27404,10 +27418,10 @@
       <c r="A1821" s="41" t="s">
         <v>2229</v>
       </c>
-      <c r="B1821" s="170" t="s">
+      <c r="B1821" s="168" t="s">
         <v>2231</v>
       </c>
-      <c r="C1821" s="186" t="s">
+      <c r="C1821" s="177" t="s">
         <v>2232</v>
       </c>
     </row>
@@ -27415,8 +27429,8 @@
       <c r="A1822" s="43" t="s">
         <v>2230</v>
       </c>
-      <c r="B1822" s="172"/>
-      <c r="C1822" s="188"/>
+      <c r="B1822" s="170"/>
+      <c r="C1822" s="178"/>
     </row>
     <row r="1823" spans="1:3" ht="110.25">
       <c r="A1823" s="41"/>
@@ -27539,11 +27553,11 @@
       </c>
     </row>
     <row r="1845" spans="1:3" ht="21" thickBot="1">
-      <c r="A1845" s="189" t="s">
+      <c r="A1845" s="239" t="s">
         <v>2247</v>
       </c>
-      <c r="B1845" s="190"/>
-      <c r="C1845" s="191"/>
+      <c r="B1845" s="240"/>
+      <c r="C1845" s="241"/>
     </row>
     <row r="1846" spans="1:3" ht="34.5">
       <c r="A1846" s="134" t="s">
@@ -27851,7 +27865,7 @@
       <c r="B1885" s="44" t="s">
         <v>2271</v>
       </c>
-      <c r="C1885" s="186" t="s">
+      <c r="C1885" s="177" t="s">
         <v>2272</v>
       </c>
     </row>
@@ -27862,19 +27876,19 @@
       <c r="B1886" s="139" t="s">
         <v>2248</v>
       </c>
-      <c r="C1886" s="187"/>
+      <c r="C1886" s="211"/>
     </row>
     <row r="1887" spans="1:3" ht="45">
       <c r="A1887" s="138" t="s">
         <v>2248</v>
       </c>
       <c r="B1887" s="44"/>
-      <c r="C1887" s="187"/>
+      <c r="C1887" s="211"/>
     </row>
     <row r="1888" spans="1:3" ht="21" thickBot="1">
       <c r="A1888" s="43"/>
       <c r="B1888" s="45"/>
-      <c r="C1888" s="188"/>
+      <c r="C1888" s="178"/>
     </row>
     <row r="1889" spans="1:3" ht="78.75">
       <c r="A1889" s="138" t="s">
@@ -30640,7 +30654,7 @@
         <v>2351</v>
       </c>
       <c r="B2244" s="44"/>
-      <c r="C2244" s="186" t="s">
+      <c r="C2244" s="177" t="s">
         <v>2601</v>
       </c>
     </row>
@@ -30651,12 +30665,12 @@
       <c r="B2245" s="139" t="s">
         <v>2248</v>
       </c>
-      <c r="C2245" s="187"/>
+      <c r="C2245" s="211"/>
     </row>
     <row r="2246" spans="1:3" ht="18.75">
       <c r="A2246" s="140"/>
       <c r="B2246" s="44"/>
-      <c r="C2246" s="187"/>
+      <c r="C2246" s="211"/>
     </row>
     <row r="2247" spans="1:3" ht="33">
       <c r="A2247" s="144" t="s">
@@ -30665,19 +30679,19 @@
       <c r="B2247" s="44" t="s">
         <v>2600</v>
       </c>
-      <c r="C2247" s="187"/>
+      <c r="C2247" s="211"/>
     </row>
     <row r="2248" spans="1:3" ht="30.75">
       <c r="A2248" s="159"/>
       <c r="B2248" s="59"/>
-      <c r="C2248" s="187"/>
+      <c r="C2248" s="211"/>
     </row>
     <row r="2249" spans="1:3" ht="31.5" thickBot="1">
       <c r="A2249" s="160" t="s">
         <v>2599</v>
       </c>
       <c r="B2249" s="45"/>
-      <c r="C2249" s="188"/>
+      <c r="C2249" s="178"/>
     </row>
     <row r="2250" spans="1:3" ht="31.5">
       <c r="A2250" s="140"/>
@@ -30758,18 +30772,18 @@
       <c r="C2259" s="45"/>
     </row>
     <row r="2260" spans="1:3" ht="15.75">
-      <c r="A2260" s="180" t="s">
+      <c r="A2260" s="233" t="s">
         <v>2611</v>
       </c>
-      <c r="B2260" s="181"/>
-      <c r="C2260" s="182"/>
+      <c r="B2260" s="234"/>
+      <c r="C2260" s="235"/>
     </row>
     <row r="2261" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A2261" s="183" t="s">
+      <c r="A2261" s="236" t="s">
         <v>2612</v>
       </c>
-      <c r="B2261" s="184"/>
-      <c r="C2261" s="185"/>
+      <c r="B2261" s="237"/>
+      <c r="C2261" s="238"/>
     </row>
     <row r="2262" spans="1:3" ht="63">
       <c r="A2262" s="140"/>
@@ -31022,203 +31036,30 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A211:A217"/>
-    <mergeCell ref="B211:B217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B184:B191"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="B195:B202"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="B271:B273"/>
-    <mergeCell ref="A289:A291"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B240"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A309:A310"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="A311:A312"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="B327:B332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="A444:A445"/>
-    <mergeCell ref="B444:B445"/>
-    <mergeCell ref="A446:A454"/>
-    <mergeCell ref="B446:B454"/>
-    <mergeCell ref="A455:A456"/>
-    <mergeCell ref="B455:B456"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="A405:A407"/>
-    <mergeCell ref="A408:A411"/>
-    <mergeCell ref="B408:B411"/>
-    <mergeCell ref="C517:C518"/>
-    <mergeCell ref="B551:B553"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="A633:A634"/>
-    <mergeCell ref="B633:B634"/>
-    <mergeCell ref="A669:A671"/>
-    <mergeCell ref="B669:B671"/>
-    <mergeCell ref="A664:A666"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="A462:A464"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="A510:A511"/>
-    <mergeCell ref="B510:B511"/>
-    <mergeCell ref="A725:C725"/>
-    <mergeCell ref="A726:C726"/>
-    <mergeCell ref="A727:C727"/>
-    <mergeCell ref="A728:C728"/>
-    <mergeCell ref="A729:C729"/>
-    <mergeCell ref="A730:C730"/>
-    <mergeCell ref="B672:B673"/>
-    <mergeCell ref="C672:C673"/>
-    <mergeCell ref="A674:A675"/>
-    <mergeCell ref="B674:B675"/>
-    <mergeCell ref="A723:C723"/>
-    <mergeCell ref="A724:C724"/>
-    <mergeCell ref="B757:B759"/>
-    <mergeCell ref="A737:C737"/>
-    <mergeCell ref="A738:C738"/>
-    <mergeCell ref="A739:C739"/>
-    <mergeCell ref="A740:C740"/>
-    <mergeCell ref="A741:C741"/>
-    <mergeCell ref="A742:C742"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="A732:C732"/>
-    <mergeCell ref="A733:C733"/>
-    <mergeCell ref="A734:C734"/>
-    <mergeCell ref="A735:C735"/>
-    <mergeCell ref="A736:C736"/>
-    <mergeCell ref="A1035:A1039"/>
-    <mergeCell ref="B1095:B1101"/>
-    <mergeCell ref="A1102:A1108"/>
-    <mergeCell ref="B1102:B1108"/>
-    <mergeCell ref="B1111:B1113"/>
-    <mergeCell ref="C1111:C1113"/>
-    <mergeCell ref="A761:A763"/>
-    <mergeCell ref="B761:B763"/>
-    <mergeCell ref="B764:B766"/>
-    <mergeCell ref="A809:A811"/>
-    <mergeCell ref="C812:C816"/>
-    <mergeCell ref="C1008:C1010"/>
-    <mergeCell ref="A1162:A1165"/>
-    <mergeCell ref="B1162:B1165"/>
-    <mergeCell ref="A1166:A1169"/>
-    <mergeCell ref="B1166:B1169"/>
-    <mergeCell ref="B1170:B1176"/>
-    <mergeCell ref="A1261:A1262"/>
-    <mergeCell ref="B1114:B1117"/>
-    <mergeCell ref="C1127:C1128"/>
-    <mergeCell ref="B1129:B1130"/>
-    <mergeCell ref="C1129:C1130"/>
-    <mergeCell ref="B1137:B1151"/>
-    <mergeCell ref="A1160:A1161"/>
-    <mergeCell ref="B1160:B1161"/>
-    <mergeCell ref="A1559:A1561"/>
-    <mergeCell ref="B1564:B1567"/>
-    <mergeCell ref="C1564:C1567"/>
-    <mergeCell ref="C1448:C1449"/>
-    <mergeCell ref="B1500:B1513"/>
-    <mergeCell ref="A1531:A1533"/>
-    <mergeCell ref="A1534:A1537"/>
-    <mergeCell ref="B1534:B1537"/>
-    <mergeCell ref="B1538:B1542"/>
-    <mergeCell ref="A1594:A1595"/>
-    <mergeCell ref="B1594:B1595"/>
-    <mergeCell ref="A1616:A1620"/>
-    <mergeCell ref="B1616:B1620"/>
-    <mergeCell ref="A1622:A1626"/>
-    <mergeCell ref="B1622:B1626"/>
-    <mergeCell ref="B1568:B1574"/>
-    <mergeCell ref="A1575:A1578"/>
-    <mergeCell ref="C1579:C1580"/>
-    <mergeCell ref="C1581:C1583"/>
-    <mergeCell ref="A1592:A1593"/>
-    <mergeCell ref="B1592:B1593"/>
-    <mergeCell ref="C1592:C1593"/>
-    <mergeCell ref="A1674:A1676"/>
-    <mergeCell ref="B1674:B1676"/>
-    <mergeCell ref="B1691:B1693"/>
-    <mergeCell ref="B1694:B1696"/>
-    <mergeCell ref="C1697:C1702"/>
-    <mergeCell ref="B1712:B1714"/>
-    <mergeCell ref="C1636:C1638"/>
-    <mergeCell ref="A1640:A1648"/>
-    <mergeCell ref="B1640:B1648"/>
-    <mergeCell ref="A1649:A1650"/>
-    <mergeCell ref="C1649:C1650"/>
-    <mergeCell ref="B1672:B1673"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A2260:C2260"/>
+    <mergeCell ref="A2261:C2261"/>
+    <mergeCell ref="C1792:C1795"/>
+    <mergeCell ref="B1821:B1822"/>
+    <mergeCell ref="C1821:C1822"/>
+    <mergeCell ref="A1845:C1845"/>
+    <mergeCell ref="C1885:C1888"/>
+    <mergeCell ref="C2244:C2249"/>
+    <mergeCell ref="B1760:B1761"/>
+    <mergeCell ref="C1760:C1761"/>
+    <mergeCell ref="B1762:B1770"/>
+    <mergeCell ref="B1772:B1773"/>
+    <mergeCell ref="C1772:C1773"/>
+    <mergeCell ref="A1791:C1791"/>
+    <mergeCell ref="B1739:B1742"/>
+    <mergeCell ref="C1739:C1742"/>
+    <mergeCell ref="B1743:B1745"/>
+    <mergeCell ref="C1743:C1745"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B1746:B1747"/>
     <mergeCell ref="C1746:C1747"/>
@@ -31243,30 +31084,203 @@
     <mergeCell ref="A745:C745"/>
     <mergeCell ref="A746:C746"/>
     <mergeCell ref="B747:B751"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A2260:C2260"/>
-    <mergeCell ref="A2261:C2261"/>
-    <mergeCell ref="C1792:C1795"/>
-    <mergeCell ref="B1821:B1822"/>
-    <mergeCell ref="C1821:C1822"/>
-    <mergeCell ref="A1845:C1845"/>
-    <mergeCell ref="C1885:C1888"/>
-    <mergeCell ref="C2244:C2249"/>
-    <mergeCell ref="B1760:B1761"/>
-    <mergeCell ref="C1760:C1761"/>
-    <mergeCell ref="B1762:B1770"/>
-    <mergeCell ref="B1772:B1773"/>
-    <mergeCell ref="C1772:C1773"/>
-    <mergeCell ref="A1791:C1791"/>
-    <mergeCell ref="B1739:B1742"/>
-    <mergeCell ref="C1739:C1742"/>
-    <mergeCell ref="B1743:B1745"/>
-    <mergeCell ref="C1743:C1745"/>
+    <mergeCell ref="A1674:A1676"/>
+    <mergeCell ref="B1674:B1676"/>
+    <mergeCell ref="B1691:B1693"/>
+    <mergeCell ref="B1694:B1696"/>
+    <mergeCell ref="C1697:C1702"/>
+    <mergeCell ref="B1712:B1714"/>
+    <mergeCell ref="C1636:C1638"/>
+    <mergeCell ref="A1640:A1648"/>
+    <mergeCell ref="B1640:B1648"/>
+    <mergeCell ref="A1649:A1650"/>
+    <mergeCell ref="C1649:C1650"/>
+    <mergeCell ref="B1672:B1673"/>
+    <mergeCell ref="A1594:A1595"/>
+    <mergeCell ref="B1594:B1595"/>
+    <mergeCell ref="A1616:A1620"/>
+    <mergeCell ref="B1616:B1620"/>
+    <mergeCell ref="A1622:A1626"/>
+    <mergeCell ref="B1622:B1626"/>
+    <mergeCell ref="B1568:B1574"/>
+    <mergeCell ref="A1575:A1578"/>
+    <mergeCell ref="C1579:C1580"/>
+    <mergeCell ref="C1581:C1583"/>
+    <mergeCell ref="A1592:A1593"/>
+    <mergeCell ref="B1592:B1593"/>
+    <mergeCell ref="C1592:C1593"/>
+    <mergeCell ref="A1559:A1561"/>
+    <mergeCell ref="B1564:B1567"/>
+    <mergeCell ref="C1564:C1567"/>
+    <mergeCell ref="C1448:C1449"/>
+    <mergeCell ref="B1500:B1513"/>
+    <mergeCell ref="A1531:A1533"/>
+    <mergeCell ref="A1534:A1537"/>
+    <mergeCell ref="B1534:B1537"/>
+    <mergeCell ref="B1538:B1542"/>
+    <mergeCell ref="A1162:A1165"/>
+    <mergeCell ref="B1162:B1165"/>
+    <mergeCell ref="A1166:A1169"/>
+    <mergeCell ref="B1166:B1169"/>
+    <mergeCell ref="B1170:B1176"/>
+    <mergeCell ref="A1261:A1262"/>
+    <mergeCell ref="B1114:B1117"/>
+    <mergeCell ref="C1127:C1128"/>
+    <mergeCell ref="B1129:B1130"/>
+    <mergeCell ref="C1129:C1130"/>
+    <mergeCell ref="B1137:B1151"/>
+    <mergeCell ref="A1160:A1161"/>
+    <mergeCell ref="B1160:B1161"/>
+    <mergeCell ref="A1035:A1039"/>
+    <mergeCell ref="B1095:B1101"/>
+    <mergeCell ref="A1102:A1108"/>
+    <mergeCell ref="B1102:B1108"/>
+    <mergeCell ref="B1111:B1113"/>
+    <mergeCell ref="C1111:C1113"/>
+    <mergeCell ref="A761:A763"/>
+    <mergeCell ref="B761:B763"/>
+    <mergeCell ref="B764:B766"/>
+    <mergeCell ref="A809:A811"/>
+    <mergeCell ref="C812:C816"/>
+    <mergeCell ref="C1008:C1010"/>
+    <mergeCell ref="B757:B759"/>
+    <mergeCell ref="A737:C737"/>
+    <mergeCell ref="A738:C738"/>
+    <mergeCell ref="A739:C739"/>
+    <mergeCell ref="A740:C740"/>
+    <mergeCell ref="A741:C741"/>
+    <mergeCell ref="A742:C742"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="A732:C732"/>
+    <mergeCell ref="A733:C733"/>
+    <mergeCell ref="A734:C734"/>
+    <mergeCell ref="A735:C735"/>
+    <mergeCell ref="A736:C736"/>
+    <mergeCell ref="A725:C725"/>
+    <mergeCell ref="A726:C726"/>
+    <mergeCell ref="A727:C727"/>
+    <mergeCell ref="A728:C728"/>
+    <mergeCell ref="A729:C729"/>
+    <mergeCell ref="A730:C730"/>
+    <mergeCell ref="B672:B673"/>
+    <mergeCell ref="C672:C673"/>
+    <mergeCell ref="A674:A675"/>
+    <mergeCell ref="B674:B675"/>
+    <mergeCell ref="A723:C723"/>
+    <mergeCell ref="A724:C724"/>
+    <mergeCell ref="C517:C518"/>
+    <mergeCell ref="B551:B553"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="A633:A634"/>
+    <mergeCell ref="B633:B634"/>
+    <mergeCell ref="A669:A671"/>
+    <mergeCell ref="B669:B671"/>
+    <mergeCell ref="A664:A666"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="A462:A464"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A510:A511"/>
+    <mergeCell ref="B510:B511"/>
+    <mergeCell ref="A444:A445"/>
+    <mergeCell ref="B444:B445"/>
+    <mergeCell ref="A446:A454"/>
+    <mergeCell ref="B446:B454"/>
+    <mergeCell ref="A455:A456"/>
+    <mergeCell ref="B455:B456"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="A405:A407"/>
+    <mergeCell ref="A408:A411"/>
+    <mergeCell ref="B408:B411"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="B327:B332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="A309:A310"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="B271:B273"/>
+    <mergeCell ref="A289:A291"/>
+    <mergeCell ref="B289:B291"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B240"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A211:A217"/>
+    <mergeCell ref="B211:B217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B184:B191"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="B195:B202"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A621" r:id="rId1" display="https://wiki/SiteAssets/Pages/Customer Service Dept/Contact Center Division/Sales Contact Center/WIKI BSS/Products/CPEs/CPE%e2%80%93Bank Installment/CPEs-Bank Installment QsAs - V4.xlsx" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
@@ -31365,7 +31379,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>195</v>
@@ -31474,7 +31488,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="130.5" customHeight="1">
@@ -31494,7 +31508,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="29.25" customHeight="1">
@@ -31514,7 +31528,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="119.25" customHeight="1">
@@ -31534,7 +31548,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -31554,7 +31568,7 @@
         <v>159</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="99.75" customHeight="1">
@@ -31574,7 +31588,7 @@
         <v>194</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1">
@@ -31594,7 +31608,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="99.75" customHeight="1">
@@ -31614,7 +31628,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="27.75" customHeight="1">
@@ -31634,7 +31648,7 @@
         <v>134</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -31655,7 +31669,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="30.75" customHeight="1">
@@ -31675,7 +31689,7 @@
         <v>186</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="109.5" customHeight="1">
@@ -31695,7 +31709,7 @@
         <v>187</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="27" customHeight="1">
@@ -31749,13 +31763,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="34.42578125" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="34.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -31789,7 +31806,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>224</v>
@@ -31920,22 +31937,22 @@
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>2656</v>
+        <v>2720</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>2655</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>2657</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>2658</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="99" customHeight="1">
@@ -31943,10 +31960,10 @@
         <v>116</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>117</v>
@@ -31955,7 +31972,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -32012,10 +32029,10 @@
         <v>1942</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
@@ -32068,7 +32085,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="24" customHeight="1"/>
@@ -32078,7 +32095,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1">
       <c r="A1" s="165" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -32088,13 +32105,13 @@
     </row>
     <row r="2" spans="1:7" s="164" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -32102,19 +32119,19 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="135" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="G3" s="164"/>
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1">
       <c r="A4" s="165" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="B4" s="166"/>
       <c r="C4" s="166"/>
@@ -32124,13 +32141,13 @@
     </row>
     <row r="5" spans="1:7" s="164" customFormat="1" ht="33.75" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>2698</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>2701</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>691</v>
@@ -32140,16 +32157,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="99" customHeight="1">
       <c r="A6" s="33" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>2699</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>2700</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>2702</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>2703</v>
       </c>
       <c r="G6" s="164"/>
     </row>
@@ -32274,7 +32291,7 @@
         <v>215</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>220</v>
@@ -32316,36 +32333,36 @@
     </row>
     <row r="7" spans="1:5" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>2679</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>2684</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>2682</v>
-      </c>
       <c r="E7" s="30" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="33" customFormat="1" ht="109.5" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
   </sheetData>
@@ -32359,7 +32376,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -32378,12 +32395,16 @@
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="105" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>2718</v>
       </c>
       <c r="B2" s="13"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:6" s="27" customFormat="1" ht="19.5" customHeight="1"/>
+    <row r="3" spans="1:6" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>2719</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="113.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:6" s="27" customFormat="1" ht="21.75" customHeight="1"/>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="109.5" customHeight="1" thickBot="1">
@@ -32411,7 +32432,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
@@ -32470,7 +32491,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>170</v>
